--- a/lmphjobs.xlsx
+++ b/lmphjobs.xlsx
@@ -422,31 +422,27 @@
         <v>rawDetails</v>
       </c>
     </row>
-    <row r="2" xml:space="preserve">
+    <row r="2">
       <c r="A2" t="str">
-        <v>Appointment Setter (Remote, Night Shift)</v>
+        <v>Appointment Setter 1001 (Remote, Night Shift)</v>
       </c>
       <c r="B2" t="str">
         <v>As an Appointment Setter, you'll help us grow by reaching potential customers, generating interest, and scheduling appointments for our sales team. Your relationship-building and communication skills will be key to success in this fast-paced role.</v>
       </c>
       <c r="C2" t="str">
-        <v>https://legalmatch.ph/jobs/appointment-setter-remote-night-shift</v>
+        <v>https://legalmatch.ph/jobs/appointment-setter-1001-remote-night-shift</v>
       </c>
       <c r="D2" t="str">
-        <v xml:space="preserve"> &lt;li&gt;making outbound calls to potential customers&lt;/li&gt; &lt;li&gt;scheduling consultations between contacts/prospective customers and members of our Sales Team&lt;/li&gt; &lt;li&gt;Inputting information accurately into our system &lt;/li&gt; &lt;li&gt;representing the company in the best way possible when conversing with contacts&lt;/li&gt; &lt;li&gt;ensuring all calls are done based on standards and requirements of the company&lt;/li&gt; &lt;li&gt;delivering reports accurately and on a timely basis&lt;/li&gt; &lt;li&gt;participating in process-improvement initiatives&lt;/li&gt; </v>
+        <v>N/A</v>
       </c>
       <c r="E2" t="str">
-        <v xml:space="preserve"> &lt;li&gt;making outbound calls to potential customers&lt;/li&gt; &lt;li&gt;scheduling consultations between contacts/prospective customers and members of our Sales Team&lt;/li&gt; &lt;li&gt;Inputting information accurately into our system &lt;/li&gt; &lt;li&gt;representing the company in the best way possible when conversing with contacts&lt;/li&gt; &lt;li&gt;ensuring all calls are done based on standards and requirements of the company&lt;/li&gt; &lt;li&gt;delivering reports accurately and on a timely basis&lt;/li&gt; &lt;li&gt;participating in process-improvement initiatives&lt;/li&gt; </v>
-      </c>
-      <c r="F2" t="str" xml:space="preserve">
-        <v xml:space="preserve">&lt;p&gt;As an Appointment Setter, you'll help us grow by reaching potential customers, generating interest, and scheduling appointments for our sales team. Your relationship-building and communication skills will be key to success in this fast-paced role.&lt;/p&gt;&lt;p&gt;Your responsibilities will include:&lt;/p&gt;&lt;ul&gt; &lt;li&gt;making outbound calls to potential customers&lt;/li&gt; &lt;li&gt;scheduling consultations between contacts/prospective customers and members of our Sales Team&lt;/li&gt; &lt;li&gt;Inputting information accurately into our system &lt;/li&gt; &lt;li&gt;representing the company in the best way possible when conversing with contacts&lt;/li&gt; &lt;li&gt;ensuring all calls are done based on standards and requirements of the company&lt;/li&gt; &lt;li&gt;delivering reports accurately and on a timely basis&lt;/li&gt; &lt;li&gt;participating in process-improvement initiatives&lt;/li&gt; &lt;/ul&gt;&lt;ul&gt; &lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Requirements&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt; &lt;li&gt;with at least 2 years of successful experience as a Lead Generation Specialist (Voice), an Appointment Setter, or any similar role;&lt;/li&gt; &lt;li&gt;possesses excellent listening and verbal communication skills&lt;/li&gt; &lt;li&gt;has a strong internet connection&lt;/li&gt; &lt;li&gt;has a designated professional and quiet workspace&lt;/li&gt; &lt;li&gt;amenable to working on a graveyard shift&lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;As an agile company, we're seeking a trailblazer who personifies the following qualities and traits:&lt;/p&gt;&lt;ul&gt; &lt;li&gt;proactive, adaptable, and flexible&lt;/li&gt; &lt;li&gt;highly professional&lt;/li&gt; &lt;li&gt;has the willingness to go the extra mile to achieve desired oucomes&lt;/li&gt; &lt;li&gt;highly collaborative&lt;/li&gt; &lt;li&gt;committed to continuous improvements and willing to experiment with new approaches and techniques to work processes&lt;/li&gt; &lt;/ul&gt;
-                                            &lt;div class="view_opening_cont jobs-single__btn"&gt;
-                                                &lt;a href="https://apply.workable.com/j/61C7A6BB10/apply" target="_blank" class="btn btn-primary btn-med btn-view-opening"&gt;Apply Now&lt;/a&gt;
-                                            &lt;/div&gt;
-                                            &lt;!--?php endif; ?--&gt;</v>
-      </c>
-    </row>
-    <row r="3" xml:space="preserve">
+        <v>N/A</v>
+      </c>
+      <c r="F2" t="str">
+        <v>&lt;p&gt;As an Appointment Setter, you'll help us grow by reaching potential customers, generating interest, and scheduling appointments for our sales team. Your relationship-building and communication skills will be key to success in this fast-paced role.&lt;/p&gt;&lt;p&gt;Your responsibilities will include:&lt;/p&gt;&lt;ul&gt; &lt;li&gt;making outbound calls to potential customers&lt;/li&gt; &lt;li&gt;scheduling consultations between contacts/prospective customers and members of our Sales Team&lt;/li&gt; &lt;li&gt;Inputting information accurately into our system &lt;/li&gt; &lt;li&gt;representing the company in the best way possible when conversing with contacts&lt;/li&gt; &lt;li&gt;ensuring all calls are done based on standards and requirements of the company&lt;/li&gt; &lt;li&gt;delivering reports accurately and on a timely basis&lt;/li&gt; &lt;li&gt;participating in process-improvement initiatives&lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Requirements&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt; &lt;li&gt;with at least 2 years of successful experience as a Lead Generation Specialist (Voice), an Appointment Setter, or any similar role;&lt;/li&gt; &lt;li&gt;possesses excellent listening and verbal communication skills&lt;/li&gt; &lt;li&gt;has a strong internet connection&lt;/li&gt; &lt;li&gt;has a designated professional and quiet workspace&lt;/li&gt; &lt;li&gt;amenable to working on a graveyard shift&lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;As an agile company, we're seeking a trailblazer who personifies the following qualities and traits:&lt;/p&gt;&lt;ul&gt; &lt;li&gt;proactive, adaptable, and flexible&lt;/li&gt; &lt;li&gt;highly professional&lt;/li&gt; &lt;li&gt;has the willingness to go the extra mile to achieve desired oucomes&lt;/li&gt; &lt;li&gt;highly collaborative&lt;/li&gt; &lt;li&gt;committed to continuous improvements and willing to experiment with new approaches and techniques to work processes&lt;/li&gt; &lt;/ul&gt;</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="str">
         <v>Appointment Setter 1002 (Remote, Night Shift)</v>
       </c>
@@ -457,20 +453,16 @@
         <v>https://legalmatch.ph/jobs/appointment-setter-1002-remote-night-shift</v>
       </c>
       <c r="D3" t="str">
-        <v xml:space="preserve"> &lt;li&gt;making outbound calls to potential customers&lt;/li&gt; &lt;li&gt;scheduling consultations between contacts/prospective customers and members of our Sales Team&lt;/li&gt; &lt;li&gt;Inputting information accurately into our system &lt;/li&gt; &lt;li&gt;representing the company in the best way possible when conversing with contacts&lt;/li&gt; &lt;li&gt;ensuring all calls are done based on standards and requirements of the company&lt;/li&gt; &lt;li&gt;delivering reports accurately and on a timely basis&lt;/li&gt; &lt;li&gt;participating in process-improvement initiatives&lt;/li&gt; </v>
+        <v>N/A</v>
       </c>
       <c r="E3" t="str">
-        <v xml:space="preserve"> &lt;li&gt;making outbound calls to potential customers&lt;/li&gt; &lt;li&gt;scheduling consultations between contacts/prospective customers and members of our Sales Team&lt;/li&gt; &lt;li&gt;Inputting information accurately into our system &lt;/li&gt; &lt;li&gt;representing the company in the best way possible when conversing with contacts&lt;/li&gt; &lt;li&gt;ensuring all calls are done based on standards and requirements of the company&lt;/li&gt; &lt;li&gt;delivering reports accurately and on a timely basis&lt;/li&gt; &lt;li&gt;participating in process-improvement initiatives&lt;/li&gt; </v>
-      </c>
-      <c r="F3" t="str" xml:space="preserve">
-        <v xml:space="preserve">&lt;p&gt;As an Appointment Setter, you'll help us grow by reaching potential customers, generating interest, and scheduling appointments for our sales team. Your relationship-building and communication skills will be key to success in this fast-paced role.&lt;/p&gt;&lt;p&gt;Your responsibilities will include:&lt;/p&gt;&lt;ul&gt; &lt;li&gt;making outbound calls to potential customers&lt;/li&gt; &lt;li&gt;scheduling consultations between contacts/prospective customers and members of our Sales Team&lt;/li&gt; &lt;li&gt;Inputting information accurately into our system &lt;/li&gt; &lt;li&gt;representing the company in the best way possible when conversing with contacts&lt;/li&gt; &lt;li&gt;ensuring all calls are done based on standards and requirements of the company&lt;/li&gt; &lt;li&gt;delivering reports accurately and on a timely basis&lt;/li&gt; &lt;li&gt;participating in process-improvement initiatives&lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Requirements&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt; &lt;li&gt;with at least 2 years of successful experience as a Lead Generation Specialist (Voice), an Appointment Setter, or any similar role;&lt;/li&gt; &lt;li&gt;possesses excellent listening and verbal communication skills&lt;/li&gt; &lt;li&gt;has a strong internet connection&lt;/li&gt; &lt;li&gt;has a designated professional and quiet workspace&lt;/li&gt; &lt;li&gt;amenable to working on a graveyard shift&lt;/li&gt; &lt;/ul&gt;&lt;p&gt;As an agile company, we're seeking a trailblazer who personifies the following qualities and traits:&lt;/p&gt;&lt;ul&gt; &lt;li&gt;proactive, adaptable, and flexible&lt;/li&gt; &lt;li&gt;highly professional&lt;/li&gt; &lt;li&gt;has the willingness to go the extra mile to achieve desired outcomes&lt;/li&gt; &lt;li&gt;highly collaborative&lt;/li&gt; &lt;li&gt;committed to continuous improvements and willing to experiment with new approaches and techniques to work processes&lt;/li&gt; &lt;/ul&gt;
-                                            &lt;div class="view_opening_cont jobs-single__btn"&gt;
-                                                &lt;a href="https://apply.workable.com/j/9F1EE443CB/apply" target="_blank" class="btn btn-primary btn-med btn-view-opening"&gt;Apply Now&lt;/a&gt;
-                                            &lt;/div&gt;
-                                            &lt;!--?php endif; ?--&gt;</v>
-      </c>
-    </row>
-    <row r="4" xml:space="preserve">
+        <v>N/A</v>
+      </c>
+      <c r="F3" t="str">
+        <v>&lt;p&gt;As an Appointment Setter, you'll help us grow by reaching potential customers, generating interest, and scheduling appointments for our sales team. Your relationship-building and communication skills will be key to success in this fast-paced role.&lt;/p&gt;&lt;p&gt;Your responsibilities will include:&lt;/p&gt;&lt;ul&gt; &lt;li&gt;making outbound calls to potential customers&lt;/li&gt; &lt;li&gt;scheduling consultations between contacts/prospective customers and members of our Sales Team&lt;/li&gt; &lt;li&gt;Inputting information accurately into our system &lt;/li&gt; &lt;li&gt;representing the company in the best way possible when conversing with contacts&lt;/li&gt; &lt;li&gt;ensuring all calls are done based on standards and requirements of the company&lt;/li&gt; &lt;li&gt;delivering reports accurately and on a timely basis&lt;/li&gt; &lt;li&gt;participating in process-improvement initiatives&lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Requirements&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt; &lt;li&gt;with at least 2 years of successful experience as a Lead Generation Specialist (Voice), an Appointment Setter, or any similar role;&lt;/li&gt; &lt;li&gt;possesses excellent listening and verbal communication skills&lt;/li&gt; &lt;li&gt;has a strong internet connection&lt;/li&gt; &lt;li&gt;has a designated professional and quiet workspace&lt;/li&gt; &lt;li&gt;amenable to working on a graveyard shift&lt;/li&gt; &lt;/ul&gt;&lt;p&gt;As an agile company, we're seeking a trailblazer who personifies the following qualities and traits:&lt;/p&gt;&lt;ul&gt; &lt;li&gt;proactive, adaptable, and flexible&lt;/li&gt; &lt;li&gt;highly professional&lt;/li&gt; &lt;li&gt;has the willingness to go the extra mile to achieve desired outcomes&lt;/li&gt; &lt;li&gt;highly collaborative&lt;/li&gt; &lt;li&gt;committed to continuous improvements and willing to experiment with new approaches and techniques to work processes&lt;/li&gt; &lt;/ul&gt;</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="str">
         <v>Call Team Manager (Remote, Night Shift)</v>
       </c>
@@ -481,20 +473,16 @@
         <v>https://legalmatch.ph/jobs/call-team-manager-remote-night-shift</v>
       </c>
       <c r="D4" t="str">
-        <v xml:space="preserve"> &lt;li&gt;Setting and challenging performance goals for our teams and consistently pushing for excellence. &lt;/li&gt; &lt;li&gt;Analyzing team and individual performance metrics to identify areas for improvement and devising strategies to optimize or address gaps. &lt;/li&gt; &lt;li&gt;Overseeing team performance to ensure daily productivity aligns with volume and quality benchmarks. &lt;/li&gt; &lt;li&gt;Guiding and mentoring teams and team leaders by demonstrating a "lead by example" approach. &lt;/li&gt; &lt;li&gt;Creating and improving processes to streamline efficiency and enhance performance &lt;/li&gt; &lt;li&gt;Optimizing the effectiveness of onboarding and training programs for fresh hires and trainees &lt;/li&gt; &lt;li&gt;Conducting comprehensive performance reviews and providing constructive feedback to team members. &lt;/li&gt; &lt;li&gt;Upholding high standards of quality calls and ensuring everyone represents the company in the best way possible &lt;/li&gt; &lt;li&gt;Exhibiting proactive leadership in a fast-paced call team environment, balancing personal sales goals with team management responsibilities. &lt;/li&gt; &lt;li&gt;Serving as a role model for everyone, cultivating a sales-oriented mindset, and exemplifying desired performance standards. &lt;/li&gt; &lt;li&gt;Engaging in talent acquisition, training, coaching, and administrative activities. &lt;/li&gt; &lt;li&gt;Nurturing a positive work environment and contributing to a cohesive team culture. &lt;/li&gt; </v>
+        <v>&lt;ul&gt; &lt;li&gt;Setting and challenging performance goals for our teams and consistently pushing for excellence. &lt;/li&gt; &lt;li&gt;Analyzing team and individual performance metrics to identify areas for improvement and devising strategies to optimize or address gaps. &lt;/li&gt; &lt;li&gt;Overseeing team performance to ensure daily productivity aligns with volume and quality benchmarks. &lt;/li&gt; &lt;li&gt;Guiding and mentoring teams and team leaders by demonstrating a "lead by example" approach. &lt;/li&gt; &lt;li&gt;Creating and improving processes to streamline efficiency and enhance performance &lt;/li&gt; &lt;li&gt;Optimizing the effectiveness of onboarding and training programs for fresh hires and trainees &lt;/li&gt; &lt;li&gt;Conducting comprehensive performance reviews and providing constructive feedback to team members. &lt;/li&gt; &lt;li&gt;Upholding high standards of quality calls and ensuring everyone represents the company in the best way possible &lt;/li&gt; &lt;li&gt;Exhibiting proactive leadership in a fast-paced call team environment, balancing personal sales goals with team management responsibilities. &lt;/li&gt; &lt;li&gt;Serving as a role model for everyone, cultivating a sales-oriented mindset, and exemplifying desired performance standards. &lt;/li&gt; &lt;li&gt;Engaging in talent acquisition, training, coaching, and administrative activities. &lt;/li&gt; &lt;li&gt;Nurturing a positive work environment and contributing to a cohesive team culture. &lt;/li&gt; &lt;/ul&gt;</v>
       </c>
       <c r="E4" t="str">
-        <v xml:space="preserve"> &lt;li&gt;Setting and challenging performance goals for our teams and consistently pushing for excellence. &lt;/li&gt; &lt;li&gt;Analyzing team and individual performance metrics to identify areas for improvement and devising strategies to optimize or address gaps. &lt;/li&gt; &lt;li&gt;Overseeing team performance to ensure daily productivity aligns with volume and quality benchmarks. &lt;/li&gt; &lt;li&gt;Guiding and mentoring teams and team leaders by demonstrating a "lead by example" approach. &lt;/li&gt; &lt;li&gt;Creating and improving processes to streamline efficiency and enhance performance &lt;/li&gt; &lt;li&gt;Optimizing the effectiveness of onboarding and training programs for fresh hires and trainees &lt;/li&gt; &lt;li&gt;Conducting comprehensive performance reviews and providing constructive feedback to team members. &lt;/li&gt; &lt;li&gt;Upholding high standards of quality calls and ensuring everyone represents the company in the best way possible &lt;/li&gt; &lt;li&gt;Exhibiting proactive leadership in a fast-paced call team environment, balancing personal sales goals with team management responsibilities. &lt;/li&gt; &lt;li&gt;Serving as a role model for everyone, cultivating a sales-oriented mindset, and exemplifying desired performance standards. &lt;/li&gt; &lt;li&gt;Engaging in talent acquisition, training, coaching, and administrative activities. &lt;/li&gt; &lt;li&gt;Nurturing a positive work environment and contributing to a cohesive team culture. &lt;/li&gt; </v>
-      </c>
-      <c r="F4" t="str" xml:space="preserve">
-        <v xml:space="preserve">&lt;p&gt;As the Call Team Manager for our Appointment Setting Team at LegalMatch Philippines, you will play a pivotal role in driving the success of our outbound call initiatives. Your leadership will empower our teams to excel and surpass their performance targets.  &lt;br&gt;&lt;/p&gt;&lt;p&gt;Your responsibilities will include:&lt;/p&gt;&lt;ul&gt; &lt;li&gt;Setting and challenging performance goals for our teams and consistently pushing for excellence. &lt;/li&gt; &lt;li&gt;Analyzing team and individual performance metrics to identify areas for improvement and devising strategies to optimize or address gaps. &lt;/li&gt; &lt;li&gt;Overseeing team performance to ensure daily productivity aligns with volume and quality benchmarks. &lt;/li&gt; &lt;li&gt;Guiding and mentoring teams and team leaders by demonstrating a "lead by example" approach. &lt;/li&gt; &lt;li&gt;Creating and improving processes to streamline efficiency and enhance performance &lt;/li&gt; &lt;li&gt;Optimizing the effectiveness of onboarding and training programs for fresh hires and trainees &lt;/li&gt; &lt;li&gt;Conducting comprehensive performance reviews and providing constructive feedback to team members. &lt;/li&gt; &lt;li&gt;Upholding high standards of quality calls and ensuring everyone represents the company in the best way possible &lt;/li&gt; &lt;li&gt;Exhibiting proactive leadership in a fast-paced call team environment, balancing personal sales goals with team management responsibilities. &lt;/li&gt; &lt;li&gt;Serving as a role model for everyone, cultivating a sales-oriented mindset, and exemplifying desired performance standards. &lt;/li&gt; &lt;li&gt;Engaging in talent acquisition, training, coaching, and administrative activities. &lt;/li&gt; &lt;li&gt;Nurturing a positive work environment and contributing to a cohesive team culture. &lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Requirements&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt; &lt;li&gt;has a minimum of 5 years' experience in leading outbound call teams, preferably within a sales-driven environment.&lt;/li&gt; &lt;li&gt;with a proven track record of consistently meeting and exceeding targets and a dedicated commitment to achieving results.&lt;/li&gt; &lt;li&gt;possesses a strong data-driven orientation, able to interpret and leverage performance metrics for continual improvement.&lt;/li&gt; &lt;li&gt;a results-focused mindset characterized by goal-oriented thinking, proactive problem-solving, and unwavering persistence.&lt;/li&gt; &lt;li&gt;proficiency in leading by example and inspiring high levels of performance from the teams &lt;/li&gt; &lt;li&gt;exceptional communication skills, both written and oral, with the ability to connect effectively with team members and management. &lt;/li&gt; &lt;li&gt;familiarity with call center dynamics and the ability to thrive in a fast-paced setting. &lt;/li&gt; &lt;li&gt;a passion for coaching and mentoring, paired with the capability to foster a positive and collaborative team culture. &lt;/li&gt; &lt;/ul&gt;
-                                            &lt;div class="view_opening_cont jobs-single__btn"&gt;
-                                                &lt;a href="https://apply.workable.com/j/25DC0751A1/apply" target="_blank" class="btn btn-primary btn-med btn-view-opening"&gt;Apply Now&lt;/a&gt;
-                                            &lt;/div&gt;
-                                            &lt;!--?php endif; ?--&gt;</v>
-      </c>
-    </row>
-    <row r="5" xml:space="preserve">
+        <v>&lt;ul&gt; &lt;li&gt;has a minimum of 5 years' experience in leading outbound call teams, preferably within a sales-driven environment.&lt;/li&gt; &lt;li&gt;with a proven track record of consistently meeting and exceeding targets and a dedicated commitment to achieving results.&lt;/li&gt; &lt;li&gt;possesses a strong data-driven orientation, able to interpret and leverage performance metrics for continual improvement.&lt;/li&gt; &lt;li&gt;a results-focused mindset characterized by goal-oriented thinking, proactive problem-solving, and unwavering persistence.&lt;/li&gt; &lt;li&gt;proficiency in leading by example and inspiring high levels of performance from the teams &lt;/li&gt; &lt;li&gt;exceptional communication skills, both written and oral, with the ability to connect effectively with team members and management. &lt;/li&gt; &lt;li&gt;familiarity with call center dynamics and the ability to thrive in a fast-paced setting. &lt;/li&gt; &lt;li&gt;a passion for coaching and mentoring, paired with the capability to foster a positive and collaborative team culture. &lt;/li&gt; &lt;/ul&gt;</v>
+      </c>
+      <c r="F4" t="str">
+        <v>&lt;p&gt;As the Call Team Manager for our Appointment Setting Team at LegalMatch Philippines, you will play a pivotal role in driving the success of our outbound call initiatives. Your leadership will empower our teams to excel and surpass their performance targets.  &lt;br&gt;&lt;/p&gt;&lt;p&gt;Your responsibilities will include:&lt;/p&gt;&lt;ul&gt; &lt;li&gt;Setting and challenging performance goals for our teams and consistently pushing for excellence. &lt;/li&gt; &lt;li&gt;Analyzing team and individual performance metrics to identify areas for improvement and devising strategies to optimize or address gaps. &lt;/li&gt; &lt;li&gt;Overseeing team performance to ensure daily productivity aligns with volume and quality benchmarks. &lt;/li&gt; &lt;li&gt;Guiding and mentoring teams and team leaders by demonstrating a "lead by example" approach. &lt;/li&gt; &lt;li&gt;Creating and improving processes to streamline efficiency and enhance performance &lt;/li&gt; &lt;li&gt;Optimizing the effectiveness of onboarding and training programs for fresh hires and trainees &lt;/li&gt; &lt;li&gt;Conducting comprehensive performance reviews and providing constructive feedback to team members. &lt;/li&gt; &lt;li&gt;Upholding high standards of quality calls and ensuring everyone represents the company in the best way possible &lt;/li&gt; &lt;li&gt;Exhibiting proactive leadership in a fast-paced call team environment, balancing personal sales goals with team management responsibilities. &lt;/li&gt; &lt;li&gt;Serving as a role model for everyone, cultivating a sales-oriented mindset, and exemplifying desired performance standards. &lt;/li&gt; &lt;li&gt;Engaging in talent acquisition, training, coaching, and administrative activities. &lt;/li&gt; &lt;li&gt;Nurturing a positive work environment and contributing to a cohesive team culture. &lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Requirements&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt; &lt;li&gt;has a minimum of 5 years' experience in leading outbound call teams, preferably within a sales-driven environment.&lt;/li&gt; &lt;li&gt;with a proven track record of consistently meeting and exceeding targets and a dedicated commitment to achieving results.&lt;/li&gt; &lt;li&gt;possesses a strong data-driven orientation, able to interpret and leverage performance metrics for continual improvement.&lt;/li&gt; &lt;li&gt;a results-focused mindset characterized by goal-oriented thinking, proactive problem-solving, and unwavering persistence.&lt;/li&gt; &lt;li&gt;proficiency in leading by example and inspiring high levels of performance from the teams &lt;/li&gt; &lt;li&gt;exceptional communication skills, both written and oral, with the ability to connect effectively with team members and management. &lt;/li&gt; &lt;li&gt;familiarity with call center dynamics and the ability to thrive in a fast-paced setting. &lt;/li&gt; &lt;li&gt;a passion for coaching and mentoring, paired with the capability to foster a positive and collaborative team culture. &lt;/li&gt; &lt;/ul&gt;</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="str">
         <v>Content Writer (Output-based, Philippines)</v>
       </c>
@@ -505,20 +493,16 @@
         <v>https://legalmatch.ph/jobs/content-writer-output-based-philippines</v>
       </c>
       <c r="D5" t="str">
-        <v xml:space="preserve"> &lt;li&gt;Create original and compelling blog posts, articles, and other written content related to the legal industry &lt;/li&gt; &lt;li&gt;Conduct research and stay up-to-date on current events and trends in the legal industry &lt;/li&gt; &lt;li&gt;Collaborate with the marketing team to develop content strategies and editorial calendars &lt;/li&gt; &lt;li&gt;Write email content, newsletters, and drips to generate attorney leads. &lt;/li&gt; &lt;li&gt;Write social media captions for US Attorney audience. &lt;/li&gt; &lt;li&gt;Edit and proofread content for accuracy, clarity, and consistency &lt;/li&gt; &lt;li&gt;Optimize content for search engines and social media platforms &lt;/li&gt; &lt;li&gt;Manage and maintain the LegalMatch blog and social media channels &lt;/li&gt; &lt;li&gt;Work with the design team to create visually appealing graphics and multimedia content &lt;/li&gt; &lt;li&gt;Participate in brainstorming sessions to develop new content ideas &lt;/li&gt; </v>
+        <v>&lt;ul&gt; &lt;li&gt;Create original and compelling blog posts, articles, and other written content related to the legal industry &lt;/li&gt; &lt;li&gt;Conduct research and stay up-to-date on current events and trends in the legal industry &lt;/li&gt; &lt;li&gt;Collaborate with the marketing team to develop content strategies and editorial calendars &lt;/li&gt; &lt;li&gt;Write email content, newsletters, and drips to generate attorney leads. &lt;/li&gt; &lt;li&gt;Write social media captions for US Attorney audience. &lt;/li&gt; &lt;li&gt;Edit and proofread content for accuracy, clarity, and consistency &lt;/li&gt; &lt;li&gt;Optimize content for search engines and social media platforms &lt;/li&gt; &lt;li&gt;Manage and maintain the LegalMatch blog and social media channels &lt;/li&gt; &lt;li&gt;Work with the design team to create visually appealing graphics and multimedia content &lt;/li&gt; &lt;li&gt;Participate in brainstorming sessions to develop new content ideas &lt;/li&gt; &lt;/ul&gt;</v>
       </c>
       <c r="E5" t="str">
-        <v xml:space="preserve"> &lt;li&gt;Create original and compelling blog posts, articles, and other written content related to the legal industry &lt;/li&gt; &lt;li&gt;Conduct research and stay up-to-date on current events and trends in the legal industry &lt;/li&gt; &lt;li&gt;Collaborate with the marketing team to develop content strategies and editorial calendars &lt;/li&gt; &lt;li&gt;Write email content, newsletters, and drips to generate attorney leads. &lt;/li&gt; &lt;li&gt;Write social media captions for US Attorney audience. &lt;/li&gt; &lt;li&gt;Edit and proofread content for accuracy, clarity, and consistency &lt;/li&gt; &lt;li&gt;Optimize content for search engines and social media platforms &lt;/li&gt; &lt;li&gt;Manage and maintain the LegalMatch blog and social media channels &lt;/li&gt; &lt;li&gt;Work with the design team to create visually appealing graphics and multimedia content &lt;/li&gt; &lt;li&gt;Participate in brainstorming sessions to develop new content ideas &lt;/li&gt; </v>
-      </c>
-      <c r="F5" t="str" xml:space="preserve">
-        <v xml:space="preserve">&lt;p&gt;As a content writer, you will be responsible for creating high-quality, engaging, and informative content that helps drive traffic to our website, increases brand awareness, and generates leads for our attorney clients. &lt;/p&gt;&lt;ul&gt; &lt;li&gt;Create original and compelling blog posts, articles, and other written content related to the legal industry &lt;/li&gt; &lt;li&gt;Conduct research and stay up-to-date on current events and trends in the legal industry &lt;/li&gt; &lt;li&gt;Collaborate with the marketing team to develop content strategies and editorial calendars &lt;/li&gt; &lt;li&gt;Write email content, newsletters, and drips to generate attorney leads. &lt;/li&gt; &lt;li&gt;Write social media captions for US Attorney audience. &lt;/li&gt; &lt;li&gt;Edit and proofread content for accuracy, clarity, and consistency &lt;/li&gt; &lt;li&gt;Optimize content for search engines and social media platforms &lt;/li&gt; &lt;li&gt;Manage and maintain the LegalMatch blog and social media channels &lt;/li&gt; &lt;li&gt;Work with the design team to create visually appealing graphics and multimedia content &lt;/li&gt; &lt;li&gt;Participate in brainstorming sessions to develop new content ideas &lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Requirements&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt; &lt;li&gt;Bachelor's degree in English, Journalism, Communications, or a related field &lt;/li&gt; &lt;li&gt;Proven experience as a content writer, with a strong portfolio of writing samples &lt;/li&gt; &lt;li&gt;Preferably with experience writing about legal topics or working in the legal industry &lt;/li&gt; &lt;li&gt;Familiarity with lead generation and/or digital marketing&lt;/li&gt; &lt;li&gt;Excellent writing, editing, and proofreading skills&lt;/li&gt; &lt;li&gt;Knowledge of SEO best practices and experience with keyword research and optimization&lt;/li&gt; &lt;li&gt;Experience with social media platforms and content management systems &lt;/li&gt; &lt;li&gt;Ability to work independently and manage multiple projects simultaneously &lt;/li&gt; &lt;li&gt;Strong communication and collaboration skills &lt;/li&gt; &lt;/ul&gt;
-                                            &lt;div class="view_opening_cont jobs-single__btn"&gt;
-                                                &lt;a href="https://apply.workable.com/j/9CE8DBC75A/apply" target="_blank" class="btn btn-primary btn-med btn-view-opening"&gt;Apply Now&lt;/a&gt;
-                                            &lt;/div&gt;
-                                            &lt;!--?php endif; ?--&gt;</v>
-      </c>
-    </row>
-    <row r="6" xml:space="preserve">
+        <v>&lt;ul&gt; &lt;li&gt;Bachelor's degree in English, Journalism, Communications, or a related field &lt;/li&gt; &lt;li&gt;Proven experience as a content writer, with a strong portfolio of writing samples &lt;/li&gt; &lt;li&gt;Preferably with experience writing about legal topics or working in the legal industry &lt;/li&gt; &lt;li&gt;Familiarity with lead generation and/or digital marketing&lt;/li&gt; &lt;li&gt;Excellent writing, editing, and proofreading skills&lt;/li&gt; &lt;li&gt;Knowledge of SEO best practices and experience with keyword research and optimization&lt;/li&gt; &lt;li&gt;Experience with social media platforms and content management systems &lt;/li&gt; &lt;li&gt;Ability to work independently and manage multiple projects simultaneously &lt;/li&gt; &lt;li&gt;Strong communication and collaboration skills &lt;/li&gt; &lt;/ul&gt;</v>
+      </c>
+      <c r="F5" t="str">
+        <v>&lt;p&gt;As a content writer, you will be responsible for creating high-quality, engaging, and informative content that helps drive traffic to our website, increases brand awareness, and generates leads for our attorney clients. &lt;/p&gt;&lt;ul&gt; &lt;li&gt;Create original and compelling blog posts, articles, and other written content related to the legal industry &lt;/li&gt; &lt;li&gt;Conduct research and stay up-to-date on current events and trends in the legal industry &lt;/li&gt; &lt;li&gt;Collaborate with the marketing team to develop content strategies and editorial calendars &lt;/li&gt; &lt;li&gt;Write email content, newsletters, and drips to generate attorney leads. &lt;/li&gt; &lt;li&gt;Write social media captions for US Attorney audience. &lt;/li&gt; &lt;li&gt;Edit and proofread content for accuracy, clarity, and consistency &lt;/li&gt; &lt;li&gt;Optimize content for search engines and social media platforms &lt;/li&gt; &lt;li&gt;Manage and maintain the LegalMatch blog and social media channels &lt;/li&gt; &lt;li&gt;Work with the design team to create visually appealing graphics and multimedia content &lt;/li&gt; &lt;li&gt;Participate in brainstorming sessions to develop new content ideas &lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Requirements&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt; &lt;li&gt;Bachelor's degree in English, Journalism, Communications, or a related field &lt;/li&gt; &lt;li&gt;Proven experience as a content writer, with a strong portfolio of writing samples &lt;/li&gt; &lt;li&gt;Preferably with experience writing about legal topics or working in the legal industry &lt;/li&gt; &lt;li&gt;Familiarity with lead generation and/or digital marketing&lt;/li&gt; &lt;li&gt;Excellent writing, editing, and proofreading skills&lt;/li&gt; &lt;li&gt;Knowledge of SEO best practices and experience with keyword research and optimization&lt;/li&gt; &lt;li&gt;Experience with social media platforms and content management systems &lt;/li&gt; &lt;li&gt;Ability to work independently and manage multiple projects simultaneously &lt;/li&gt; &lt;li&gt;Strong communication and collaboration skills &lt;/li&gt; &lt;/ul&gt;</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="str">
         <v>Data Engineer (Remote, Philippines)</v>
       </c>
@@ -529,20 +513,16 @@
         <v>https://legalmatch.ph/jobs/data-engineer-remote-philippines</v>
       </c>
       <c r="D6" t="str">
-        <v xml:space="preserve"> &lt;li&gt;ensuring that data acquisition and analysis being done in the company are automated to the extent appropriate &lt;/li&gt; &lt;li&gt;recommending internal process improvements (including those related to automating manual processes, optimizing data delivery, re-designing infrastructure for greater scalability, etc.) &lt;/li&gt; &lt;li&gt;developing and implementing data collection systems and other strategies that optimize statistical efficiency and data quality. &lt;/li&gt; &lt;li&gt;assisting in building the infrastructure for extraction, transformation, and loading of data from a wide variety of sources including Salesforce, Quickbooks, and SQL databases &lt;/li&gt; &lt;li&gt;filtering and “cleaning” data, and reviewing reports and performance indicators to locate and correct code problems &lt;/li&gt; &lt;li&gt;building analytics tools that utilize data pipeline to provide actionable insights into sales, customer acquisition, operational efficiency, and other key business performance metrics &lt;/li&gt; &lt;li&gt;interpreting data, analyzing results using statistical techniques, and providing management with meaningful reports and actionable recommendations. &lt;/li&gt; &lt;li&gt;performing other related data responsibilities as needed. &lt;/li&gt; </v>
+        <v>N/A</v>
       </c>
       <c r="E6" t="str">
-        <v xml:space="preserve"> &lt;li&gt;ensuring that data acquisition and analysis being done in the company are automated to the extent appropriate &lt;/li&gt; &lt;li&gt;recommending internal process improvements (including those related to automating manual processes, optimizing data delivery, re-designing infrastructure for greater scalability, etc.) &lt;/li&gt; &lt;li&gt;developing and implementing data collection systems and other strategies that optimize statistical efficiency and data quality. &lt;/li&gt; &lt;li&gt;assisting in building the infrastructure for extraction, transformation, and loading of data from a wide variety of sources including Salesforce, Quickbooks, and SQL databases &lt;/li&gt; &lt;li&gt;filtering and “cleaning” data, and reviewing reports and performance indicators to locate and correct code problems &lt;/li&gt; &lt;li&gt;building analytics tools that utilize data pipeline to provide actionable insights into sales, customer acquisition, operational efficiency, and other key business performance metrics &lt;/li&gt; &lt;li&gt;interpreting data, analyzing results using statistical techniques, and providing management with meaningful reports and actionable recommendations. &lt;/li&gt; &lt;li&gt;performing other related data responsibilities as needed. &lt;/li&gt; </v>
-      </c>
-      <c r="F6" t="str" xml:space="preserve">
-        <v xml:space="preserve">&lt;p&gt;As a Data Engineer, your role is to help the company achieve its mission by designing and implementing data automation solutions to support the company’s growing data initiatives.&lt;/p&gt;  &lt;p&gt;Your responsibilities will include: &lt;/p&gt;    &lt;ul&gt; &lt;li&gt;ensuring that data acquisition and analysis being done in the company are automated to the extent appropriate &lt;/li&gt; &lt;li&gt;recommending internal process improvements (including those related to automating manual processes, optimizing data delivery, re-designing infrastructure for greater scalability, etc.) &lt;/li&gt; &lt;li&gt;developing and implementing data collection systems and other strategies that optimize statistical efficiency and data quality. &lt;/li&gt; &lt;li&gt;assisting in building the infrastructure for extraction, transformation, and loading of data from a wide variety of sources including Salesforce, Quickbooks, and SQL databases &lt;/li&gt; &lt;li&gt;filtering and “cleaning” data, and reviewing reports and performance indicators to locate and correct code problems &lt;/li&gt; &lt;li&gt;building analytics tools that utilize data pipeline to provide actionable insights into sales, customer acquisition, operational efficiency, and other key business performance metrics &lt;/li&gt; &lt;li&gt;interpreting data, analyzing results using statistical techniques, and providing management with meaningful reports and actionable recommendations. &lt;/li&gt; &lt;li&gt;performing other related data responsibilities as needed. &lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Requirements&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt; &lt;li&gt;Proficient in Python, SQL, data cleaning, data transformation, and the use of data analysis tools (e.g., Python, Pandas, Numpy, Matplotlib, Seaborn) to extract actionable insights.&lt;/li&gt; &lt;li&gt;Experience in automating data acquisition and analysis processes, creating and managing automated workflows, and scripting for data integration (ETL).&lt;/li&gt; &lt;li&gt;A proven track record of identifying and recommending process improvements, optimizing data delivery, automating manual processes, and designing scalable infrastructure.&lt;/li&gt; &lt;li&gt;Skilled in developing and implementing data collection systems, integrating data from various sources (e.g., Salesforce, Quickbooks, Databases), and ensuring data quality.&lt;/li&gt; &lt;li&gt;Proficient in data cleaning, data validation, code issue identification and correction, and maintaining data accuracy and reliability.&lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;We're seeking a trailblazer who personifies agility through the following qualities and traits:   &lt;/p&gt;&lt;ul&gt; &lt;li&gt;proactive, adaptable, and flexible  &lt;/li&gt; &lt;li&gt;highly professional  &lt;/li&gt; &lt;li&gt;has the willingness to go the extra mile to achieve desired outcomes  &lt;/li&gt; &lt;li&gt;with strong collaboration and communication skills to work effectively with cross-functional teams  &lt;/li&gt; &lt;li&gt;with strong problem-solving skills   &lt;/li&gt; &lt;li&gt;committed to continuous improvements and willing to experiment with new approaches and techniques to work processes &lt;/li&gt; &lt;/ul&gt;
-                                            &lt;div class="view_opening_cont jobs-single__btn"&gt;
-                                                &lt;a href="https://apply.workable.com/j/5CF6B061F1/apply" target="_blank" class="btn btn-primary btn-med btn-view-opening"&gt;Apply Now&lt;/a&gt;
-                                            &lt;/div&gt;
-                                            &lt;!--?php endif; ?--&gt;</v>
-      </c>
-    </row>
-    <row r="7" xml:space="preserve">
+        <v>N/A</v>
+      </c>
+      <c r="F6" t="str">
+        <v>&lt;p&gt;As a Data Engineer, your role is to help the company achieve its mission by designing and implementing data automation solutions to support the company’s growing data initiatives.&lt;/p&gt;  &lt;p&gt;Your responsibilities will include: &lt;/p&gt;    &lt;ul&gt; &lt;li&gt;ensuring that data acquisition and analysis being done in the company are automated to the extent appropriate &lt;/li&gt; &lt;li&gt;recommending internal process improvements (including those related to automating manual processes, optimizing data delivery, re-designing infrastructure for greater scalability, etc.) &lt;/li&gt; &lt;li&gt;developing and implementing data collection systems and other strategies that optimize statistical efficiency and data quality. &lt;/li&gt; &lt;li&gt;assisting in building the infrastructure for extraction, transformation, and loading of data from a wide variety of sources including Salesforce, Quickbooks, and SQL databases &lt;/li&gt; &lt;li&gt;filtering and “cleaning” data, and reviewing reports and performance indicators to locate and correct code problems &lt;/li&gt; &lt;li&gt;building analytics tools that utilize data pipeline to provide actionable insights into sales, customer acquisition, operational efficiency, and other key business performance metrics &lt;/li&gt; &lt;li&gt;interpreting data, analyzing results using statistical techniques, and providing management with meaningful reports and actionable recommendations. &lt;/li&gt; &lt;li&gt;performing other related data responsibilities as needed. &lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Requirements&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt; &lt;li&gt;Proficient in Python, SQL, data cleaning, data transformation, and the use of data analysis tools (e.g., Python, Pandas, Numpy, Matplotlib, Seaborn) to extract actionable insights.&lt;/li&gt; &lt;li&gt;Experience in automating data acquisition and analysis processes, creating and managing automated workflows, and scripting for data integration (ETL).&lt;/li&gt; &lt;li&gt;A proven track record of identifying and recommending process improvements, optimizing data delivery, automating manual processes, and designing scalable infrastructure.&lt;/li&gt; &lt;li&gt;Skilled in developing and implementing data collection systems, integrating data from various sources (e.g., Salesforce, Quickbooks, Databases), and ensuring data quality.&lt;/li&gt; &lt;li&gt;Proficient in data cleaning, data validation, code issue identification and correction, and maintaining data accuracy and reliability.&lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;We're seeking a trailblazer who personifies agility through the following qualities and traits:   &lt;/p&gt;&lt;ul&gt; &lt;li&gt;proactive, adaptable, and flexible  &lt;/li&gt; &lt;li&gt;highly professional  &lt;/li&gt; &lt;li&gt;has the willingness to go the extra mile to achieve desired outcomes  &lt;/li&gt; &lt;li&gt;with strong collaboration and communication skills to work effectively with cross-functional teams  &lt;/li&gt; &lt;li&gt;with strong problem-solving skills   &lt;/li&gt; &lt;li&gt;committed to continuous improvements and willing to experiment with new approaches and techniques to work processes &lt;/li&gt; &lt;/ul&gt;</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="str">
         <v>Lead Software Engineer: Java Full Stack (Remote, Philippines)</v>
       </c>
@@ -553,20 +533,16 @@
         <v>https://legalmatch.ph/jobs/lead-software-engineer:-java-full-stack-remote-philippines</v>
       </c>
       <c r="D7" t="str">
-        <v xml:space="preserve"> &lt;li&gt;leading and managing a team of software engineers, fostering a creative and cohesive unit capable of delivering complex software projects &lt;/li&gt; &lt;li&gt;coordinating with scrum masters, project managers and other software engineers to plan, design, develop, test, and maintain web-based and desktop applications &lt;/li&gt; &lt;li&gt;providing technical leadership in all aspects of our software development processes &lt;/li&gt; &lt;li&gt;overseeing the design, development, and implementation of new software systems and enhancements to existing systems &lt;/li&gt; &lt;li&gt;ensuring all software engineering projects are delivered on time and to the agreed quality standards &lt;/li&gt; &lt;li&gt;continually updating technical knowledge and skills and sharing them with the team &lt;/li&gt; &lt;li&gt;maintaining high standards of software quality within the team by establishing good practices and habits &lt;/li&gt; &lt;li&gt;providing regular performance feedback, coaching, and career development to team members &lt;/li&gt; &lt;li&gt;facilitating root cause analysis of system issues and implementing resolution strategies. &lt;/li&gt; </v>
+        <v>N/A</v>
       </c>
       <c r="E7" t="str">
-        <v xml:space="preserve"> &lt;li&gt;leading and managing a team of software engineers, fostering a creative and cohesive unit capable of delivering complex software projects &lt;/li&gt; &lt;li&gt;coordinating with scrum masters, project managers and other software engineers to plan, design, develop, test, and maintain web-based and desktop applications &lt;/li&gt; &lt;li&gt;providing technical leadership in all aspects of our software development processes &lt;/li&gt; &lt;li&gt;overseeing the design, development, and implementation of new software systems and enhancements to existing systems &lt;/li&gt; &lt;li&gt;ensuring all software engineering projects are delivered on time and to the agreed quality standards &lt;/li&gt; &lt;li&gt;continually updating technical knowledge and skills and sharing them with the team &lt;/li&gt; &lt;li&gt;maintaining high standards of software quality within the team by establishing good practices and habits &lt;/li&gt; &lt;li&gt;providing regular performance feedback, coaching, and career development to team members &lt;/li&gt; &lt;li&gt;facilitating root cause analysis of system issues and implementing resolution strategies. &lt;/li&gt; </v>
-      </c>
-      <c r="F7" t="str" xml:space="preserve">
-        <v xml:space="preserve">&lt;p&gt;As a Lead Software Engineer, you will be responsible for leading and implementing technical decisions and efforts of a software engineering team, overseeing and performing the development of high-quality software products, and enhancing our existing software platforms alone or with individuals of the same or similar role. The role requires a combination of strong leadership, advanced technical capabilities, and excellent communication skills. The successful candidate must have a deep understanding of the software development lifecycles, modern software engineering technologies and methodologies, and the ability to guide and inspire a team of talented engineers. &lt;/p&gt;&lt;p&gt;The Lead Software Engineer is the basic unit member of a future engineering department capable of taking the business where it needs to go. High-performing, skilled engineers - capable of thriving in both a team environment and as individuals. In a gist, this is a coding/technical role with good management ownership mindset. &lt;/p&gt;&lt;p&gt;&lt;strong&gt;Your responsibilities will include:&lt;/strong&gt; &lt;/p&gt;&lt;ul&gt; &lt;li&gt;leading and managing a team of software engineers, fostering a creative and cohesive unit capable of delivering complex software projects &lt;/li&gt; &lt;li&gt;coordinating with scrum masters, project managers and other software engineers to plan, design, develop, test, and maintain web-based and desktop applications &lt;/li&gt; &lt;li&gt;providing technical leadership in all aspects of our software development processes &lt;/li&gt; &lt;li&gt;overseeing the design, development, and implementation of new software systems and enhancements to existing systems &lt;/li&gt; &lt;li&gt;ensuring all software engineering projects are delivered on time and to the agreed quality standards &lt;/li&gt; &lt;li&gt;continually updating technical knowledge and skills and sharing them with the team &lt;/li&gt; &lt;li&gt;maintaining high standards of software quality within the team by establishing good practices and habits &lt;/li&gt; &lt;li&gt;providing regular performance feedback, coaching, and career development to team members &lt;/li&gt; &lt;li&gt;facilitating root cause analysis of system issues and implementing resolution strategies. &lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Requirements&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt; &lt;li&gt;with a minimum of 7 years of hands-on experience in software development, including at least 3 years in a leadership capacity &lt;/li&gt; &lt;li&gt;with extensive experience in various programming languages such as Java, C++, C# dot Net, Python, JavaScript, etc.  &lt;/li&gt; &lt;li&gt;competent in Object Oriented Design, functional programming, and even with straight forward scripting to solve problems. &lt;/li&gt; &lt;li&gt;with solid experience as a full stack developer, capable of working proficiently at both the backend and frontend levels (ex:  HTML, ES6, Virtual DOM like ReactJS, and DOM like bootstrap + jQuery). &lt;/li&gt; &lt;li&gt;is aware of good User Experience (UX) practices and trends, capable of effectively proposing how to improve User Experience and understands when to trust clients/stakeholders on their chosen path of UX &lt;/li&gt; &lt;li&gt;is familiar with modern software architectures (microservices, event-driven architectures) and deployment methodologies and tools (CI/CD, Docker, Kubernetes) &lt;/li&gt; &lt;li&gt;believes that software quality is not the work alone of the Quality Assurance/Control team &lt;/li&gt; &lt;li&gt;has practiced unit testing and Test-Driven Development (TDD and optionally Behavior-Driven Development (BDD) &lt;/li&gt; &lt;li&gt;with experience in software development methodologies like Agile/Scrum. &lt;/li&gt; &lt;li&gt;has a strong knowledge of database systems, both SQL and NoSQL, and entity relationship modelling. &lt;/li&gt; &lt;li&gt;has excellent problem-solving and detail orientation skills &lt;/li&gt; &lt;li&gt;possesses strong communication and interpersonal skills &lt;/li&gt; &lt;li&gt;has proven ability to manage and prioritize multiple, concurrent projects &lt;/li&gt; &lt;li&gt;familiarity with Cloud platforms (AWS, Azure, Google Cloud) is a plus&lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Additional Requirements:&lt;/strong&gt; &lt;/p&gt;&lt;ul&gt; &lt;li&gt;has a proven track record of managing all aspects of a successful software product throughout its lifecycle &lt;/li&gt; &lt;li&gt;with solid understanding of the technology landscape including current and emerging technologies and best practices &lt;/li&gt; &lt;li&gt;can inspire and motivate teams to deliver innovative and exciting solutions with an appropriate sense of urgency &lt;/li&gt; &lt;li&gt;has demonstrated success in leading and managing a team of software engineers with a commitment to their growth and professional development &lt;/li&gt; &lt;li&gt;has an exceptional project management and organization skills &lt;/li&gt; &lt;li&gt;with strong customer focus and ability to manage client expectations &lt;/li&gt; &lt;li&gt;proficient in system-level design and experience with web services and service-oriented architecture &lt;/li&gt; &lt;li&gt;familiarity with version control systems such as Git&lt;/li&gt; &lt;li&gt;has an experience in testing frameworks and practices, including unit, integration, and automated testing&lt;/li&gt; &lt;li&gt;has an experience in securing software applications &lt;/li&gt; &lt;li&gt;with excellent written and verbal communication skills, including the ability to explain complex technical concepts to a non-technical audience. &lt;/li&gt; &lt;li&gt;is flexible to adapt to rapidly changing conditions and priorities &lt;/li&gt; &lt;li&gt;has the ability to multi-task, prioritize tasks, and quickly adjust in a rapidly changing environment &lt;/li&gt; &lt;li&gt;has the ability to furnish a comprehensive portfolio or provide examples of projects where they have successfully led the software engineering effort &lt;/li&gt; &lt;/ul&gt;&lt;p&gt;We're seeking a trailblazer who personifies agility through the following qualities and traits: &lt;/p&gt;&lt;ul&gt; &lt;li&gt;proactive, adaptable, and flexible &lt;/li&gt; &lt;li&gt;highly professional &lt;/li&gt; &lt;li&gt;has the willingness to go the extra mile to achieve desired outcomes &lt;/li&gt; &lt;li&gt;with strong collaboration and communication skills to work effectively with cross-functional teams &lt;/li&gt; &lt;li&gt;with strong problem-solving skills  &lt;/li&gt; &lt;li&gt;committed to continuous improvements and willing to experiment with new approaches and techniques to work processes&lt;/li&gt; &lt;/ul&gt;
-                                            &lt;div class="view_opening_cont jobs-single__btn"&gt;
-                                                &lt;a href="https://apply.workable.com/j/47A0FFB504/apply" target="_blank" class="btn btn-primary btn-med btn-view-opening"&gt;Apply Now&lt;/a&gt;
-                                            &lt;/div&gt;
-                                            &lt;!--?php endif; ?--&gt;</v>
-      </c>
-    </row>
-    <row r="8" xml:space="preserve">
+        <v>N/A</v>
+      </c>
+      <c r="F7" t="str">
+        <v>&lt;p&gt;As a Lead Software Engineer, you will be responsible for leading and implementing technical decisions and efforts of a software engineering team, overseeing and performing the development of high-quality software products, and enhancing our existing software platforms alone or with individuals of the same or similar role. The role requires a combination of strong leadership, advanced technical capabilities, and excellent communication skills. The successful candidate must have a deep understanding of the software development lifecycles, modern software engineering technologies and methodologies, and the ability to guide and inspire a team of talented engineers. &lt;/p&gt;&lt;p&gt;The Lead Software Engineer is the basic unit member of a future engineering department capable of taking the business where it needs to go. High-performing, skilled engineers - capable of thriving in both a team environment and as individuals. In a gist, this is a coding/technical role with good management ownership mindset. &lt;/p&gt;&lt;p&gt;&lt;strong&gt;Your responsibilities will include:&lt;/strong&gt; &lt;/p&gt;&lt;ul&gt; &lt;li&gt;leading and managing a team of software engineers, fostering a creative and cohesive unit capable of delivering complex software projects &lt;/li&gt; &lt;li&gt;coordinating with scrum masters, project managers and other software engineers to plan, design, develop, test, and maintain web-based and desktop applications &lt;/li&gt; &lt;li&gt;providing technical leadership in all aspects of our software development processes &lt;/li&gt; &lt;li&gt;overseeing the design, development, and implementation of new software systems and enhancements to existing systems &lt;/li&gt; &lt;li&gt;ensuring all software engineering projects are delivered on time and to the agreed quality standards &lt;/li&gt; &lt;li&gt;continually updating technical knowledge and skills and sharing them with the team &lt;/li&gt; &lt;li&gt;maintaining high standards of software quality within the team by establishing good practices and habits &lt;/li&gt; &lt;li&gt;providing regular performance feedback, coaching, and career development to team members &lt;/li&gt; &lt;li&gt;facilitating root cause analysis of system issues and implementing resolution strategies. &lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Requirements&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt; &lt;li&gt;with a minimum of 7 years of hands-on experience in software development, including at least 3 years in a leadership capacity &lt;/li&gt; &lt;li&gt;with extensive experience in various programming languages such as Java, C++, C# dot Net, Python, JavaScript, etc.  &lt;/li&gt; &lt;li&gt;competent in Object Oriented Design, functional programming, and even with straight forward scripting to solve problems. &lt;/li&gt; &lt;li&gt;with solid experience as a full stack developer, capable of working proficiently at both the backend and frontend levels (ex:  HTML, ES6, Virtual DOM like ReactJS, and DOM like bootstrap + jQuery). &lt;/li&gt; &lt;li&gt;is aware of good User Experience (UX) practices and trends, capable of effectively proposing how to improve User Experience and understands when to trust clients/stakeholders on their chosen path of UX &lt;/li&gt; &lt;li&gt;is familiar with modern software architectures (microservices, event-driven architectures) and deployment methodologies and tools (CI/CD, Docker, Kubernetes) &lt;/li&gt; &lt;li&gt;believes that software quality is not the work alone of the Quality Assurance/Control team &lt;/li&gt; &lt;li&gt;has practiced unit testing and Test-Driven Development (TDD and optionally Behavior-Driven Development (BDD) &lt;/li&gt; &lt;li&gt;with experience in software development methodologies like Agile/Scrum. &lt;/li&gt; &lt;li&gt;has a strong knowledge of database systems, both SQL and NoSQL, and entity relationship modelling. &lt;/li&gt; &lt;li&gt;has excellent problem-solving and detail orientation skills &lt;/li&gt; &lt;li&gt;possesses strong communication and interpersonal skills &lt;/li&gt; &lt;li&gt;has proven ability to manage and prioritize multiple, concurrent projects &lt;/li&gt; &lt;li&gt;familiarity with Cloud platforms (AWS, Azure, Google Cloud) is a plus&lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Additional Requirements:&lt;/strong&gt; &lt;/p&gt;&lt;ul&gt; &lt;li&gt;has a proven track record of managing all aspects of a successful software product throughout its lifecycle &lt;/li&gt; &lt;li&gt;with solid understanding of the technology landscape including current and emerging technologies and best practices &lt;/li&gt; &lt;li&gt;can inspire and motivate teams to deliver innovative and exciting solutions with an appropriate sense of urgency &lt;/li&gt; &lt;li&gt;has demonstrated success in leading and managing a team of software engineers with a commitment to their growth and professional development &lt;/li&gt; &lt;li&gt;has an exceptional project management and organization skills &lt;/li&gt; &lt;li&gt;with strong customer focus and ability to manage client expectations &lt;/li&gt; &lt;li&gt;proficient in system-level design and experience with web services and service-oriented architecture &lt;/li&gt; &lt;li&gt;familiarity with version control systems such as Git&lt;/li&gt; &lt;li&gt;has an experience in testing frameworks and practices, including unit, integration, and automated testing&lt;/li&gt; &lt;li&gt;has an experience in securing software applications &lt;/li&gt; &lt;li&gt;with excellent written and verbal communication skills, including the ability to explain complex technical concepts to a non-technical audience. &lt;/li&gt; &lt;li&gt;is flexible to adapt to rapidly changing conditions and priorities &lt;/li&gt; &lt;li&gt;has the ability to multi-task, prioritize tasks, and quickly adjust in a rapidly changing environment &lt;/li&gt; &lt;li&gt;has the ability to furnish a comprehensive portfolio or provide examples of projects where they have successfully led the software engineering effort &lt;/li&gt; &lt;/ul&gt;&lt;p&gt;We're seeking a trailblazer who personifies agility through the following qualities and traits: &lt;/p&gt;&lt;ul&gt; &lt;li&gt;proactive, adaptable, and flexible &lt;/li&gt; &lt;li&gt;highly professional &lt;/li&gt; &lt;li&gt;has the willingness to go the extra mile to achieve desired outcomes &lt;/li&gt; &lt;li&gt;with strong collaboration and communication skills to work effectively with cross-functional teams &lt;/li&gt; &lt;li&gt;with strong problem-solving skills  &lt;/li&gt; &lt;li&gt;committed to continuous improvements and willing to experiment with new approaches and techniques to work processes&lt;/li&gt; &lt;/ul&gt;</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="str">
         <v>Principal Software Engineer: Java Full Stack (Remote, Philippines)</v>
       </c>
@@ -577,20 +553,16 @@
         <v>https://legalmatch.ph/jobs/principal-software-engineer:-java-full-stack-remote-philippines</v>
       </c>
       <c r="D8" t="str">
-        <v xml:space="preserve"> &lt;li&gt;leading and managing a team of software engineers, fostering a creative and cohesive unit capable of delivering complex software projects &lt;/li&gt; &lt;li&gt;coordinating with scrum masters, project managers and other software engineers to plan, design, develop, test, and maintain web-based and desktop applications &lt;/li&gt; &lt;li&gt;providing technical leadership in all aspects of our software development processes &lt;/li&gt; &lt;li&gt;overseeing the design, development, and implementation of new software systems and enhancements to existing systems &lt;/li&gt; &lt;li&gt;ensuring all software engineering projects are delivered on time and to the agreed quality standards &lt;/li&gt; &lt;li&gt;continually updating technical knowledge and skills and sharing them with the team &lt;/li&gt; &lt;li&gt;maintaining high standards of software quality within the team by establishing good practices and habits &lt;/li&gt; &lt;li&gt;providing regular performance feedback, coaching, and career development to team members &lt;/li&gt; &lt;li&gt;facilitating root cause analysis of system issues and implementing resolution strategies. &lt;/li&gt; </v>
+        <v>N/A</v>
       </c>
       <c r="E8" t="str">
-        <v xml:space="preserve"> &lt;li&gt;leading and managing a team of software engineers, fostering a creative and cohesive unit capable of delivering complex software projects &lt;/li&gt; &lt;li&gt;coordinating with scrum masters, project managers and other software engineers to plan, design, develop, test, and maintain web-based and desktop applications &lt;/li&gt; &lt;li&gt;providing technical leadership in all aspects of our software development processes &lt;/li&gt; &lt;li&gt;overseeing the design, development, and implementation of new software systems and enhancements to existing systems &lt;/li&gt; &lt;li&gt;ensuring all software engineering projects are delivered on time and to the agreed quality standards &lt;/li&gt; &lt;li&gt;continually updating technical knowledge and skills and sharing them with the team &lt;/li&gt; &lt;li&gt;maintaining high standards of software quality within the team by establishing good practices and habits &lt;/li&gt; &lt;li&gt;providing regular performance feedback, coaching, and career development to team members &lt;/li&gt; &lt;li&gt;facilitating root cause analysis of system issues and implementing resolution strategies. &lt;/li&gt; </v>
-      </c>
-      <c r="F8" t="str" xml:space="preserve">
-        <v xml:space="preserve">&lt;p&gt;As a Principal Software Engineer, you will be responsible for leading and implementing technical decisions and efforts of a software engineering team, overseeing and performing the development of high-quality software products, and enhancing our existing software platforms alone or with individuals of the same or similar role. The role requires a combination of strong leadership, advanced technical capabilities, and excellent communication skills. The successful candidate must have a deep understanding of the software development lifecycles, modern software engineering technologies and methodologies, and the ability to guide and inspire a team of talented engineers. &lt;/p&gt;&lt;p&gt;The Principal Software Engineer is the basic unit member of a future engineering department capable of taking the business where it needs to go. High performing, skilled engineers - capable of thriving in both a team environment and as individuals. In a gist, this is a coding/technical role with good management ownership mindset. &lt;/p&gt;&lt;p&gt;&lt;strong&gt;Your responsibilities will include:&lt;/strong&gt; &lt;/p&gt;&lt;ul&gt; &lt;li&gt;leading and managing a team of software engineers, fostering a creative and cohesive unit capable of delivering complex software projects &lt;/li&gt; &lt;li&gt;coordinating with scrum masters, project managers and other software engineers to plan, design, develop, test, and maintain web-based and desktop applications &lt;/li&gt; &lt;li&gt;providing technical leadership in all aspects of our software development processes &lt;/li&gt; &lt;li&gt;overseeing the design, development, and implementation of new software systems and enhancements to existing systems &lt;/li&gt; &lt;li&gt;ensuring all software engineering projects are delivered on time and to the agreed quality standards &lt;/li&gt; &lt;li&gt;continually updating technical knowledge and skills and sharing them with the team &lt;/li&gt; &lt;li&gt;maintaining high standards of software quality within the team by establishing good practices and habits &lt;/li&gt; &lt;li&gt;providing regular performance feedback, coaching, and career development to team members &lt;/li&gt; &lt;li&gt;facilitating root cause analysis of system issues and implementing resolution strategies. &lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Requirements&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt; &lt;li&gt;with a minimum of 7 years of hands-on experience in software development, including at least 3 years in a leadership capacity &lt;/li&gt; &lt;li&gt;with extensive experience in various programming languages such as Java, C++, C# dot Net, Python, JavaScript, etc.  &lt;/li&gt; &lt;li&gt;competent in Object Oriented Design, functional programming, and even with straight forward scripting to solve problems. &lt;/li&gt; &lt;li&gt;with solid experience as a full stack developer, capable of working proficiently at both the backend and frontend levels (ex:  HTML, ES6, Virtual DOM like ReactJS, and DOM like bootstrap + jQuery). &lt;/li&gt; &lt;li&gt;is aware of good User Experience (UX) practices and trends, capable of effectively proposing how to improve User Experience and understands when to trust clients/stakeholders on their chosen path of UX &lt;/li&gt; &lt;li&gt;is familiar with modern software architectures (microservices, event-driven architectures) and deployment methodologies and tools (CI/CD, Docker, Kubernetes) &lt;/li&gt; &lt;li&gt;believes that software quality is not the work alone of the Quality Assurance/Control team &lt;/li&gt; &lt;li&gt;has practiced unit testing and Test-Driven Development (TDD and optionally Behavior-Driven Development (BDD) &lt;/li&gt; &lt;li&gt;with experience in software development methodologies like Agile/Scrum. &lt;/li&gt; &lt;li&gt;has a strong knowledge of database systems, both SQL and NoSQL, and entity relationship modelling. &lt;/li&gt; &lt;li&gt;has excellent problem-solving and detail orientation skills &lt;/li&gt; &lt;li&gt;possesses strong communication and interpersonal skills &lt;/li&gt; &lt;li&gt;has proven ability to manage and prioritize multiple, concurrent projects &lt;/li&gt; &lt;li&gt;is familiar with cloud platforms (AWS, Azure, Google Cloud) is a plus &lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Additional Requirements:&lt;/strong&gt; &lt;/p&gt;&lt;ul&gt; &lt;li&gt;has a proven track record of managing all aspects of a successful software product throughout its lifecycle &lt;/li&gt; &lt;li&gt;with solid understanding of the technology landscape including current and emerging technologies and best practices &lt;/li&gt; &lt;li&gt;can inspire and motivate teams to deliver innovative and exciting solutions with an appropriate sense of urgency &lt;/li&gt; &lt;li&gt;has demonstrated success in leading and managing a team of software engineers with a commitment to their growth and professional development &lt;/li&gt; &lt;li&gt;has an exceptional project management and organization skills &lt;/li&gt; &lt;li&gt;with strong customer focus and ability to manage client expectations &lt;/li&gt; &lt;li&gt;proficient in system-level design and experience with web services and service-oriented architecture &lt;/li&gt; &lt;li&gt;is familiar with version control systems such as Git &lt;/li&gt; &lt;li&gt;has an experience in testing frameworks and practices, including unit, integration, and automated testing &lt;/li&gt; &lt;li&gt;has an experience in securing software applications &lt;/li&gt; &lt;li&gt;with excellent written and verbal communication skills, including the ability to explain complex technical concepts to a non-technical audience. &lt;/li&gt; &lt;li&gt;is flexible to adapt to rapidly changing conditions and priorities &lt;/li&gt; &lt;li&gt;has the ability to multi-task, prioritize tasks, and quickly adjust in a rapidly changing environment &lt;/li&gt; &lt;li&gt;has the ability to furnish a comprehensive portfolio or provide examples of projects where they have successfully led the software engineering effort &lt;/li&gt; &lt;/ul&gt;&lt;p&gt;Our ideal candidate possesses the following qualities and traits: &lt;/p&gt;&lt;ul&gt; &lt;li&gt;proactive, adaptable, and flexible &lt;/li&gt; &lt;li&gt;highly professional &lt;/li&gt; &lt;li&gt;has the willingness to go the extra mile to achieve desired outcomes &lt;/li&gt; &lt;li&gt;with strong collaboration and communication skills to work effectively with cross-functional teams &lt;/li&gt; &lt;li&gt;with strong problem-solving skills  &lt;/li&gt; &lt;li&gt;committed to continuous improvements and willing to experiment with new approaches and techniques to work processes&lt;/li&gt; &lt;/ul&gt;
-                                            &lt;div class="view_opening_cont jobs-single__btn"&gt;
-                                                &lt;a href="https://apply.workable.com/j/D725E29438/apply" target="_blank" class="btn btn-primary btn-med btn-view-opening"&gt;Apply Now&lt;/a&gt;
-                                            &lt;/div&gt;
-                                            &lt;!--?php endif; ?--&gt;</v>
-      </c>
-    </row>
-    <row r="9" xml:space="preserve">
+        <v>N/A</v>
+      </c>
+      <c r="F8" t="str">
+        <v>&lt;p&gt;As a Principal Software Engineer, you will be responsible for leading and implementing technical decisions and efforts of a software engineering team, overseeing and performing the development of high-quality software products, and enhancing our existing software platforms alone or with individuals of the same or similar role. The role requires a combination of strong leadership, advanced technical capabilities, and excellent communication skills. The successful candidate must have a deep understanding of the software development lifecycles, modern software engineering technologies and methodologies, and the ability to guide and inspire a team of talented engineers. &lt;/p&gt;&lt;p&gt;The Principal Software Engineer is the basic unit member of a future engineering department capable of taking the business where it needs to go. High performing, skilled engineers - capable of thriving in both a team environment and as individuals. In a gist, this is a coding/technical role with good management ownership mindset. &lt;/p&gt;&lt;p&gt;&lt;strong&gt;Your responsibilities will include:&lt;/strong&gt; &lt;/p&gt;&lt;ul&gt; &lt;li&gt;leading and managing a team of software engineers, fostering a creative and cohesive unit capable of delivering complex software projects &lt;/li&gt; &lt;li&gt;coordinating with scrum masters, project managers and other software engineers to plan, design, develop, test, and maintain web-based and desktop applications &lt;/li&gt; &lt;li&gt;providing technical leadership in all aspects of our software development processes &lt;/li&gt; &lt;li&gt;overseeing the design, development, and implementation of new software systems and enhancements to existing systems &lt;/li&gt; &lt;li&gt;ensuring all software engineering projects are delivered on time and to the agreed quality standards &lt;/li&gt; &lt;li&gt;continually updating technical knowledge and skills and sharing them with the team &lt;/li&gt; &lt;li&gt;maintaining high standards of software quality within the team by establishing good practices and habits &lt;/li&gt; &lt;li&gt;providing regular performance feedback, coaching, and career development to team members &lt;/li&gt; &lt;li&gt;facilitating root cause analysis of system issues and implementing resolution strategies. &lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Requirements&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt; &lt;li&gt;with a minimum of 7 years of hands-on experience in software development, including at least 3 years in a leadership capacity &lt;/li&gt; &lt;li&gt;with extensive experience in various programming languages such as Java, C++, C# dot Net, Python, JavaScript, etc.  &lt;/li&gt; &lt;li&gt;competent in Object Oriented Design, functional programming, and even with straight forward scripting to solve problems. &lt;/li&gt; &lt;li&gt;with solid experience as a full stack developer, capable of working proficiently at both the backend and frontend levels (ex:  HTML, ES6, Virtual DOM like ReactJS, and DOM like bootstrap + jQuery). &lt;/li&gt; &lt;li&gt;is aware of good User Experience (UX) practices and trends, capable of effectively proposing how to improve User Experience and understands when to trust clients/stakeholders on their chosen path of UX &lt;/li&gt; &lt;li&gt;is familiar with modern software architectures (microservices, event-driven architectures) and deployment methodologies and tools (CI/CD, Docker, Kubernetes) &lt;/li&gt; &lt;li&gt;believes that software quality is not the work alone of the Quality Assurance/Control team &lt;/li&gt; &lt;li&gt;has practiced unit testing and Test-Driven Development (TDD and optionally Behavior-Driven Development (BDD) &lt;/li&gt; &lt;li&gt;with experience in software development methodologies like Agile/Scrum. &lt;/li&gt; &lt;li&gt;has a strong knowledge of database systems, both SQL and NoSQL, and entity relationship modelling. &lt;/li&gt; &lt;li&gt;has excellent problem-solving and detail orientation skills &lt;/li&gt; &lt;li&gt;possesses strong communication and interpersonal skills &lt;/li&gt; &lt;li&gt;has proven ability to manage and prioritize multiple, concurrent projects &lt;/li&gt; &lt;li&gt;is familiar with cloud platforms (AWS, Azure, Google Cloud) is a plus &lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Additional Requirements:&lt;/strong&gt; &lt;/p&gt;&lt;ul&gt; &lt;li&gt;has a proven track record of managing all aspects of a successful software product throughout its lifecycle &lt;/li&gt; &lt;li&gt;with solid understanding of the technology landscape including current and emerging technologies and best practices &lt;/li&gt; &lt;li&gt;can inspire and motivate teams to deliver innovative and exciting solutions with an appropriate sense of urgency &lt;/li&gt; &lt;li&gt;has demonstrated success in leading and managing a team of software engineers with a commitment to their growth and professional development &lt;/li&gt; &lt;li&gt;has an exceptional project management and organization skills &lt;/li&gt; &lt;li&gt;with strong customer focus and ability to manage client expectations &lt;/li&gt; &lt;li&gt;proficient in system-level design and experience with web services and service-oriented architecture &lt;/li&gt; &lt;li&gt;is familiar with version control systems such as Git &lt;/li&gt; &lt;li&gt;has an experience in testing frameworks and practices, including unit, integration, and automated testing &lt;/li&gt; &lt;li&gt;has an experience in securing software applications &lt;/li&gt; &lt;li&gt;with excellent written and verbal communication skills, including the ability to explain complex technical concepts to a non-technical audience. &lt;/li&gt; &lt;li&gt;is flexible to adapt to rapidly changing conditions and priorities &lt;/li&gt; &lt;li&gt;has the ability to multi-task, prioritize tasks, and quickly adjust in a rapidly changing environment &lt;/li&gt; &lt;li&gt;has the ability to furnish a comprehensive portfolio or provide examples of projects where they have successfully led the software engineering effort &lt;/li&gt; &lt;/ul&gt;&lt;p&gt;Our ideal candidate possesses the following qualities and traits: &lt;/p&gt;&lt;ul&gt; &lt;li&gt;proactive, adaptable, and flexible &lt;/li&gt; &lt;li&gt;highly professional &lt;/li&gt; &lt;li&gt;has the willingness to go the extra mile to achieve desired outcomes &lt;/li&gt; &lt;li&gt;with strong collaboration and communication skills to work effectively with cross-functional teams &lt;/li&gt; &lt;li&gt;with strong problem-solving skills  &lt;/li&gt; &lt;li&gt;committed to continuous improvements and willing to experiment with new approaches and techniques to work processes&lt;/li&gt; &lt;/ul&gt;</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="str">
         <v>Senior Java Developer - 1001 (Remote, Philippines)</v>
       </c>
@@ -601,20 +573,16 @@
         <v>https://legalmatch.ph/jobs/senior-java-developer-1001-remote-philippines</v>
       </c>
       <c r="D9" t="str">
-        <v xml:space="preserve"> &lt;li&gt;analyzing business requirements to define effective technical implementation strategies. &lt;/li&gt; &lt;li&gt;designing high-quality solutions that adhere to best practices and leverage your technical expertise. &lt;/li&gt; &lt;li&gt;crafting extensible, scalable, reliable, well-structured, and efficient code. &lt;/li&gt; &lt;li&gt;developing and supporting Java-based components and interfaces, employing diverse coding methodologies, best practices, and tools to achieve desired outcomes. &lt;/li&gt; &lt;li&gt;ensuring timely delivery of thoroughly tested software components. &lt;/li&gt; &lt;li&gt;demonstrating flexibility and a commitment to delivering results by doing whatever it takes to meet project/business goals. &lt;/li&gt; &lt;li&gt;collaborating closely with internal teams and project stakeholders to foster effective communication and synergy. &lt;/li&gt; &lt;li&gt;assuming responsibility for code asset management, promoting asset reuse, and ensuring application support. &lt;/li&gt; &lt;li&gt;conducting comprehensive unit, integrated, and system testing in accordance with detailed functional specifications. &lt;/li&gt; &lt;li&gt;assisting in the smooth implementation of systems into production environments. &lt;/li&gt; &lt;li&gt;applying accepted methodologies and tools in a disciplined manner throughout the development process. &lt;/li&gt; &lt;li&gt;working independently and efficiently to meet deadlines and contribute to project success. &lt;/li&gt; &lt;li&gt;keeping abreast of the latest software development trends and technologies, leveraging them to optimize the quality and efficiency of LegalMatch platforms. &lt;/li&gt; </v>
+        <v>N/A</v>
       </c>
       <c r="E9" t="str">
-        <v xml:space="preserve"> &lt;li&gt;analyzing business requirements to define effective technical implementation strategies. &lt;/li&gt; &lt;li&gt;designing high-quality solutions that adhere to best practices and leverage your technical expertise. &lt;/li&gt; &lt;li&gt;crafting extensible, scalable, reliable, well-structured, and efficient code. &lt;/li&gt; &lt;li&gt;developing and supporting Java-based components and interfaces, employing diverse coding methodologies, best practices, and tools to achieve desired outcomes. &lt;/li&gt; &lt;li&gt;ensuring timely delivery of thoroughly tested software components. &lt;/li&gt; &lt;li&gt;demonstrating flexibility and a commitment to delivering results by doing whatever it takes to meet project/business goals. &lt;/li&gt; &lt;li&gt;collaborating closely with internal teams and project stakeholders to foster effective communication and synergy. &lt;/li&gt; &lt;li&gt;assuming responsibility for code asset management, promoting asset reuse, and ensuring application support. &lt;/li&gt; &lt;li&gt;conducting comprehensive unit, integrated, and system testing in accordance with detailed functional specifications. &lt;/li&gt; &lt;li&gt;assisting in the smooth implementation of systems into production environments. &lt;/li&gt; &lt;li&gt;applying accepted methodologies and tools in a disciplined manner throughout the development process. &lt;/li&gt; &lt;li&gt;working independently and efficiently to meet deadlines and contribute to project success. &lt;/li&gt; &lt;li&gt;keeping abreast of the latest software development trends and technologies, leveraging them to optimize the quality and efficiency of LegalMatch platforms. &lt;/li&gt; </v>
-      </c>
-      <c r="F9" t="str" xml:space="preserve">
-        <v xml:space="preserve">&lt;p&gt;As a Senior Java Developer, you will play a vital role in building and maintaining the software that powers the LegalMatch platform. You will collaborate with product management to define requirements and work with the technical implementation team to deliver a finished product.  &lt;/p&gt;&lt;p&gt;&lt;strong&gt;Your responsibilities will include:&lt;/strong&gt; &lt;/p&gt;&lt;ul&gt; &lt;li&gt;analyzing business requirements to define effective technical implementation strategies. &lt;/li&gt; &lt;li&gt;designing high-quality solutions that adhere to best practices and leverage your technical expertise. &lt;/li&gt; &lt;li&gt;crafting extensible, scalable, reliable, well-structured, and efficient code. &lt;/li&gt; &lt;li&gt;developing and supporting Java-based components and interfaces, employing diverse coding methodologies, best practices, and tools to achieve desired outcomes. &lt;/li&gt; &lt;li&gt;ensuring timely delivery of thoroughly tested software components. &lt;/li&gt; &lt;li&gt;demonstrating flexibility and a commitment to delivering results by doing whatever it takes to meet project/business goals. &lt;/li&gt; &lt;li&gt;collaborating closely with internal teams and project stakeholders to foster effective communication and synergy. &lt;/li&gt; &lt;li&gt;assuming responsibility for code asset management, promoting asset reuse, and ensuring application support. &lt;/li&gt; &lt;li&gt;conducting comprehensive unit, integrated, and system testing in accordance with detailed functional specifications. &lt;/li&gt; &lt;li&gt;assisting in the smooth implementation of systems into production environments. &lt;/li&gt; &lt;li&gt;applying accepted methodologies and tools in a disciplined manner throughout the development process. &lt;/li&gt; &lt;li&gt;working independently and efficiently to meet deadlines and contribute to project success. &lt;/li&gt; &lt;li&gt;keeping abreast of the latest software development trends and technologies, leveraging them to optimize the quality and efficiency of LegalMatch platforms. &lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Requirements&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt; &lt;li&gt;With at least 5 years of prior experience as a Senior Java Developer &lt;/li&gt; &lt;li&gt;Required skills in: &lt;/li&gt; &lt;/ul&gt;&lt;ul&gt;&lt;ul&gt; &lt;li&gt;Core Java, Web applications, and web services (5 years) &lt;/li&gt; &lt;li&gt;Microservices Architecture (3 years) &lt;/li&gt; &lt;li&gt;Amazon Web Services (3 years) &lt;/li&gt; &lt;li&gt;Terraform Scripting (1 year) &lt;/li&gt; &lt;/ul&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;Proficient in most of the following: &lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;ul&gt; &lt;li&gt;Software design&lt;/li&gt; &lt;li&gt;SQL, Hibernate &lt;/li&gt; &lt;li&gt;JSON, XML &lt;/li&gt; &lt;li&gt;Modern CSS, HTML, and jQuery (or similar) scripting library &lt;/li&gt; &lt;li&gt;Apache Struts and Spring Boot &lt;/li&gt; &lt;li&gt;JSP, Velocity, or equivalent template engine &lt;/li&gt; &lt;li&gt;jQuery/AJAX, web development/HTML/JavaScript/CSS, JSP or equivalent template library &lt;/li&gt; &lt;li&gt;Jenkins or other CI/CD &lt;/li&gt; &lt;li&gt;Docker or other containers &lt;/li&gt; &lt;li&gt;Apache web server or equivalent like NGINX &lt;/li&gt; &lt;li&gt;Linux Operating System &lt;/li&gt; &lt;li&gt;Git &lt;/li&gt; &lt;/ul&gt;&lt;/ul&gt;&lt;ul&gt; &lt;li&gt;Familiarity with Agile and Scrum methodologies  &lt;/li&gt; &lt;li&gt;It will be a plus if you know the following as well:  &lt;/li&gt; &lt;/ul&gt;&lt;ul&gt;&lt;ul&gt; &lt;li&gt;Amazon Web Services &lt;/li&gt; &lt;li&gt;Microservices  &lt;/li&gt; &lt;/ul&gt;&lt;/ul&gt;&lt;p&gt;We're seeking a trailblazer who personifies agility through the following qualities and traits: &lt;/p&gt;&lt;ul&gt; &lt;li&gt;Proactive, adaptable and flexible &lt;/li&gt; &lt;li&gt;Highly professional &lt;/li&gt; &lt;li&gt;Willing to go the extra mile to achieve desired outcomes &lt;/li&gt; &lt;li&gt;Strong collaboration and communication skills to work effectively with cross-functional teams &lt;/li&gt; &lt;li&gt;Strong problem-solving skills  &lt;/li&gt; &lt;li&gt;Committed to continuous improvements and willing to experiment with new approaches and techniques to work processes &lt;/li&gt; &lt;/ul&gt;
-                                            &lt;div class="view_opening_cont jobs-single__btn"&gt;
-                                                &lt;a href="https://apply.workable.com/j/61DF92A754/apply" target="_blank" class="btn btn-primary btn-med btn-view-opening"&gt;Apply Now&lt;/a&gt;
-                                            &lt;/div&gt;
-                                            &lt;!--?php endif; ?--&gt;</v>
-      </c>
-    </row>
-    <row r="10" xml:space="preserve">
+        <v>N/A</v>
+      </c>
+      <c r="F9" t="str">
+        <v>&lt;p&gt;As a Senior Java Developer, you will play a vital role in building and maintaining the software that powers the LegalMatch platform. You will collaborate with product management to define requirements and work with the technical implementation team to deliver a finished product.  &lt;/p&gt;&lt;p&gt;&lt;strong&gt;Your responsibilities will include:&lt;/strong&gt; &lt;/p&gt;&lt;ul&gt; &lt;li&gt;analyzing business requirements to define effective technical implementation strategies. &lt;/li&gt; &lt;li&gt;designing high-quality solutions that adhere to best practices and leverage your technical expertise. &lt;/li&gt; &lt;li&gt;crafting extensible, scalable, reliable, well-structured, and efficient code. &lt;/li&gt; &lt;li&gt;developing and supporting Java-based components and interfaces, employing diverse coding methodologies, best practices, and tools to achieve desired outcomes. &lt;/li&gt; &lt;li&gt;ensuring timely delivery of thoroughly tested software components. &lt;/li&gt; &lt;li&gt;demonstrating flexibility and a commitment to delivering results by doing whatever it takes to meet project/business goals. &lt;/li&gt; &lt;li&gt;collaborating closely with internal teams and project stakeholders to foster effective communication and synergy. &lt;/li&gt; &lt;li&gt;assuming responsibility for code asset management, promoting asset reuse, and ensuring application support. &lt;/li&gt; &lt;li&gt;conducting comprehensive unit, integrated, and system testing in accordance with detailed functional specifications. &lt;/li&gt; &lt;li&gt;assisting in the smooth implementation of systems into production environments. &lt;/li&gt; &lt;li&gt;applying accepted methodologies and tools in a disciplined manner throughout the development process. &lt;/li&gt; &lt;li&gt;working independently and efficiently to meet deadlines and contribute to project success. &lt;/li&gt; &lt;li&gt;keeping abreast of the latest software development trends and technologies, leveraging them to optimize the quality and efficiency of LegalMatch platforms. &lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Requirements&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt; &lt;li&gt;With at least 5 years of prior experience as a Senior Java Developer &lt;/li&gt; &lt;li&gt;Required skills in: &lt;/li&gt; &lt;/ul&gt;&lt;ul&gt;&lt;ul&gt; &lt;li&gt;Core Java, Web applications, and web services (5 years) &lt;/li&gt; &lt;li&gt;Microservices Architecture (3 years) &lt;/li&gt; &lt;li&gt;Amazon Web Services (3 years) &lt;/li&gt; &lt;li&gt;Terraform Scripting (1 year) &lt;/li&gt; &lt;/ul&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;Proficient in most of the following: &lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;ul&gt; &lt;li&gt;Software design&lt;/li&gt; &lt;li&gt;SQL, Hibernate &lt;/li&gt; &lt;li&gt;JSON, XML &lt;/li&gt; &lt;li&gt;Modern CSS, HTML, and jQuery (or similar) scripting library &lt;/li&gt; &lt;li&gt;Apache Struts and Spring Boot &lt;/li&gt; &lt;li&gt;JSP, Velocity, or equivalent template engine &lt;/li&gt; &lt;li&gt;jQuery/AJAX, web development/HTML/JavaScript/CSS, JSP or equivalent template library &lt;/li&gt; &lt;li&gt;Jenkins or other CI/CD &lt;/li&gt; &lt;li&gt;Docker or other containers &lt;/li&gt; &lt;li&gt;Apache web server or equivalent like NGINX &lt;/li&gt; &lt;li&gt;Linux Operating System &lt;/li&gt; &lt;li&gt;Git &lt;/li&gt; &lt;/ul&gt;&lt;/ul&gt;&lt;ul&gt; &lt;li&gt;Familiarity with Agile and Scrum methodologies  &lt;/li&gt; &lt;li&gt;It will be a plus if you know the following as well:  &lt;/li&gt; &lt;/ul&gt;&lt;ul&gt;&lt;ul&gt; &lt;li&gt;Amazon Web Services &lt;/li&gt; &lt;li&gt;Microservices  &lt;/li&gt; &lt;/ul&gt;&lt;/ul&gt;&lt;p&gt;We're seeking a trailblazer who personifies agility through the following qualities and traits: &lt;/p&gt;&lt;ul&gt; &lt;li&gt;Proactive, adaptable and flexible &lt;/li&gt; &lt;li&gt;Highly professional &lt;/li&gt; &lt;li&gt;Willing to go the extra mile to achieve desired outcomes &lt;/li&gt; &lt;li&gt;Strong collaboration and communication skills to work effectively with cross-functional teams &lt;/li&gt; &lt;li&gt;Strong problem-solving skills  &lt;/li&gt; &lt;li&gt;Committed to continuous improvements and willing to experiment with new approaches and techniques to work processes &lt;/li&gt; &lt;/ul&gt;</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="str">
         <v>Senior Sales Operations Analyst (Remote, Philippines)</v>
       </c>
@@ -625,20 +593,16 @@
         <v>https://legalmatch.ph/jobs/senior-sales-operations-analyst-remote-philippines</v>
       </c>
       <c r="D10" t="str">
-        <v xml:space="preserve"> &lt;li&gt;Drive strategic sales ops projects, including those related to sales database enrichment and maintenance. Ensure these projects are delivered on time, within scope, and budget.&lt;/li&gt; &lt;li&gt;Analyze sales funnel performance and other data on a regular basis; make sound recommendations for how to improve&lt;/li&gt; &lt;li&gt;Propose and implement projects for improving sales conversion as well as for streamlining and optimizing the sales process&lt;/li&gt; &lt;li&gt;Drive projects that will enable the organization to make the most out of Salesforce and other CRM tools&lt;/li&gt; &lt;li&gt;Work with business stakeholders to help set quarterly and monthly targets for performance&lt;/li&gt; &lt;li&gt;Help ensure effective and efficient use of Salesforce.com, including administration, user setup, and adoption&lt;/li&gt; &lt;li&gt;Train and mentor new team members as needed&lt;/li&gt; </v>
+        <v>N/A</v>
       </c>
       <c r="E10" t="str">
-        <v xml:space="preserve"> &lt;li&gt;Drive strategic sales ops projects, including those related to sales database enrichment and maintenance. Ensure these projects are delivered on time, within scope, and budget.&lt;/li&gt; &lt;li&gt;Analyze sales funnel performance and other data on a regular basis; make sound recommendations for how to improve&lt;/li&gt; &lt;li&gt;Propose and implement projects for improving sales conversion as well as for streamlining and optimizing the sales process&lt;/li&gt; &lt;li&gt;Drive projects that will enable the organization to make the most out of Salesforce and other CRM tools&lt;/li&gt; &lt;li&gt;Work with business stakeholders to help set quarterly and monthly targets for performance&lt;/li&gt; &lt;li&gt;Help ensure effective and efficient use of Salesforce.com, including administration, user setup, and adoption&lt;/li&gt; &lt;li&gt;Train and mentor new team members as needed&lt;/li&gt; </v>
-      </c>
-      <c r="F10" t="str" xml:space="preserve">
-        <v xml:space="preserve">&lt;p&gt;As Sr. Sales Operations Analyst your main goal is to drive sales growth and improve Sales Team efficiency by proactively monitoring the company’s sales funnel, analyzing drop-offs and performance gaps, and driving recommendations for how to improve. You will work with various teams and lead strategic projects that will improve sales team performance, from lead generation up to conversion.&lt;br&gt;&lt;/p&gt;&lt;p&gt;Responsibilities:&lt;/p&gt;&lt;ul&gt; &lt;li&gt;Drive strategic sales ops projects, including those related to sales database enrichment and maintenance. Ensure these projects are delivered on time, within scope, and budget.&lt;/li&gt; &lt;li&gt;Analyze sales funnel performance and other data on a regular basis; make sound recommendations for how to improve&lt;/li&gt; &lt;li&gt;Propose and implement projects for improving sales conversion as well as for streamlining and optimizing the sales process&lt;/li&gt; &lt;li&gt;Drive projects that will enable the organization to make the most out of Salesforce and other CRM tools&lt;/li&gt; &lt;li&gt;Work with business stakeholders to help set quarterly and monthly targets for performance&lt;/li&gt; &lt;li&gt;Help ensure effective and efficient use of Salesforce.com, including administration, user setup, and adoption&lt;/li&gt; &lt;li&gt;Train and mentor new team members as needed&lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Requirements&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt; &lt;li&gt;Proficient in Python, SQL, data cleaning, data transformation, and the use of data analysis tools (e.g., Python, Pandas, Numpy, Matplotlib, Seaborn) to extract actionable insights. &lt;/li&gt; &lt;li&gt;Experience in automating data acquisition and analysis processes, creating and managing automated workflows, and scripting for data integration (ETL). &lt;/li&gt; &lt;li&gt;A proven track record of identifying and recommending process improvements, optimizing data delivery, automating manual processes, and designing scalable infrastructure. &lt;/li&gt; &lt;li&gt;Skilled in developing and implementing data collection systems, integrating data from various sources (e.g., Salesforce, Quickbooks, Databases), and ensuring data quality. &lt;/li&gt; &lt;li&gt;Proficient in data cleaning, data validation, code issue identification and correction, and maintaining data accuracy and reliability. &lt;/li&gt; &lt;li&gt;Project management &lt;/li&gt; &lt;li&gt;Sales funnel understanding / knowledge of conversion optimization tactics &lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;As an agile company, our ideal candidate personifies agility through the following qualities and traits:&lt;/p&gt;&lt;ul&gt; &lt;li&gt;Proactive, adaptable, and flexible&lt;/li&gt; &lt;li&gt;Highly professional&lt;/li&gt; &lt;li&gt;Willing to go the extra mile to achieve desired outcomes&lt;/li&gt; &lt;li&gt;Strong collaboration and communication skills to work effectively with cross-functional teams&lt;/li&gt; &lt;li&gt;Strong problem-solving skills&lt;/li&gt; &lt;li&gt;Committed to continuous improvements and willing to experiment with new approaches and techniques to work processes&lt;/li&gt; &lt;/ul&gt;
-                                            &lt;div class="view_opening_cont jobs-single__btn"&gt;
-                                                &lt;a href="https://apply.workable.com/j/1A58741D44/apply" target="_blank" class="btn btn-primary btn-med btn-view-opening"&gt;Apply Now&lt;/a&gt;
-                                            &lt;/div&gt;
-                                            &lt;!--?php endif; ?--&gt;</v>
-      </c>
-    </row>
-    <row r="11" xml:space="preserve">
+        <v>N/A</v>
+      </c>
+      <c r="F10" t="str">
+        <v>&lt;p&gt;As Sr. Sales Operations Analyst your main goal is to drive sales growth and improve Sales Team efficiency by proactively monitoring the company’s sales funnel, analyzing drop-offs and performance gaps, and driving recommendations for how to improve. You will work with various teams and lead strategic projects that will improve sales team performance, from lead generation up to conversion.&lt;br&gt;&lt;/p&gt;&lt;p&gt;Responsibilities:&lt;/p&gt;&lt;ul&gt; &lt;li&gt;Drive strategic sales ops projects, including those related to sales database enrichment and maintenance. Ensure these projects are delivered on time, within scope, and budget.&lt;/li&gt; &lt;li&gt;Analyze sales funnel performance and other data on a regular basis; make sound recommendations for how to improve&lt;/li&gt; &lt;li&gt;Propose and implement projects for improving sales conversion as well as for streamlining and optimizing the sales process&lt;/li&gt; &lt;li&gt;Drive projects that will enable the organization to make the most out of Salesforce and other CRM tools&lt;/li&gt; &lt;li&gt;Work with business stakeholders to help set quarterly and monthly targets for performance&lt;/li&gt; &lt;li&gt;Help ensure effective and efficient use of Salesforce.com, including administration, user setup, and adoption&lt;/li&gt; &lt;li&gt;Train and mentor new team members as needed&lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Requirements&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt; &lt;li&gt;Proficient in Python, SQL, data cleaning, data transformation, and the use of data analysis tools (e.g., Python, Pandas, Numpy, Matplotlib, Seaborn) to extract actionable insights. &lt;/li&gt; &lt;li&gt;Experience in automating data acquisition and analysis processes, creating and managing automated workflows, and scripting for data integration (ETL). &lt;/li&gt; &lt;li&gt;A proven track record of identifying and recommending process improvements, optimizing data delivery, automating manual processes, and designing scalable infrastructure. &lt;/li&gt; &lt;li&gt;Skilled in developing and implementing data collection systems, integrating data from various sources (e.g., Salesforce, Quickbooks, Databases), and ensuring data quality. &lt;/li&gt; &lt;li&gt;Proficient in data cleaning, data validation, code issue identification and correction, and maintaining data accuracy and reliability. &lt;/li&gt; &lt;li&gt;Project management &lt;/li&gt; &lt;li&gt;Sales funnel understanding / knowledge of conversion optimization tactics &lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;As an agile company, our ideal candidate personifies agility through the following qualities and traits:&lt;/p&gt;&lt;ul&gt; &lt;li&gt;Proactive, adaptable, and flexible&lt;/li&gt; &lt;li&gt;Highly professional&lt;/li&gt; &lt;li&gt;Willing to go the extra mile to achieve desired outcomes&lt;/li&gt; &lt;li&gt;Strong collaboration and communication skills to work effectively with cross-functional teams&lt;/li&gt; &lt;li&gt;Strong problem-solving skills&lt;/li&gt; &lt;li&gt;Committed to continuous improvements and willing to experiment with new approaches and techniques to work processes&lt;/li&gt; &lt;/ul&gt;</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="str">
         <v>Senior WordPress Full Stack Engineer (Remote, Philippines)</v>
       </c>
@@ -649,20 +613,16 @@
         <v>https://legalmatch.ph/jobs/senior-wordpress-full-stack-engineer-remote-philippines</v>
       </c>
       <c r="D11" t="str">
-        <v xml:space="preserve"> &lt;li&gt;Developing and maintaining web applications using HTML, CSS, JavaScript, and PHP. &lt;/li&gt; &lt;li&gt;Managing and optimizing WordPress-based websites, including theme and plugin development. &lt;/li&gt; &lt;li&gt;Configuring and maintaining web servers using Apache and Nginx, ensuring high availability and performance. &lt;/li&gt; &lt;li&gt;Implementing web design using CSS with the BEM (Block Element Modifier) approach to ensure clean, easily maintainable, and scalable codes. &lt;/li&gt; &lt;li&gt;Utilizing Server Side Includes (SSI) for dynamic web content generation. &lt;/li&gt; &lt;li&gt;Working with Docker for containerization, ensuring consistency across development, testing, and production environments. &lt;/li&gt; &lt;li&gt;Implementing and managing auxiliary services like Visual Website Optimizer (VWO) and Google Tag Manager (GTM) for web analytics and A/B testing. &lt;/li&gt; &lt;li&gt;Designing and managing Jenkins pipelines to automate builds and tests, ensuring efficient and streamlined development processes. &lt;/li&gt; &lt;li&gt;Developing and integrating headless CMS architectures to improve website performance and scalability. &lt;/li&gt; &lt;li&gt;Collaborating with cross-functional teams to understand requirements and provide technical solutions. &lt;/li&gt; &lt;li&gt;Staying updated with emerging trends and technologies in web development. &lt;/li&gt; </v>
+        <v>N/A</v>
       </c>
       <c r="E11" t="str">
-        <v xml:space="preserve"> &lt;li&gt;Developing and maintaining web applications using HTML, CSS, JavaScript, and PHP. &lt;/li&gt; &lt;li&gt;Managing and optimizing WordPress-based websites, including theme and plugin development. &lt;/li&gt; &lt;li&gt;Configuring and maintaining web servers using Apache and Nginx, ensuring high availability and performance. &lt;/li&gt; &lt;li&gt;Implementing web design using CSS with the BEM (Block Element Modifier) approach to ensure clean, easily maintainable, and scalable codes. &lt;/li&gt; &lt;li&gt;Utilizing Server Side Includes (SSI) for dynamic web content generation. &lt;/li&gt; &lt;li&gt;Working with Docker for containerization, ensuring consistency across development, testing, and production environments. &lt;/li&gt; &lt;li&gt;Implementing and managing auxiliary services like Visual Website Optimizer (VWO) and Google Tag Manager (GTM) for web analytics and A/B testing. &lt;/li&gt; &lt;li&gt;Designing and managing Jenkins pipelines to automate builds and tests, ensuring efficient and streamlined development processes. &lt;/li&gt; &lt;li&gt;Developing and integrating headless CMS architectures to improve website performance and scalability. &lt;/li&gt; &lt;li&gt;Collaborating with cross-functional teams to understand requirements and provide technical solutions. &lt;/li&gt; &lt;li&gt;Staying updated with emerging trends and technologies in web development. &lt;/li&gt; </v>
-      </c>
-      <c r="F11" t="str" xml:space="preserve">
-        <v xml:space="preserve">&lt;p&gt;As a Senior WordPress Full Stack Engineer, you will play a crucial role in the development and maintenance of sophisticated web applications, specifically focusing on creating and optimizing WordPress sites within the LegalMatch platform. You will be instrumental in managing a range of web servers and executing efficient containerization strategies. A significant part of your role involves collaborating with various teams to craft and implement technology solutions that align with our goals. &lt;/p&gt;&lt;p&gt;This position is central to our company's commitment to delivering consistent, top-tier software solutions. It blends hands-on coding and technical responsibilities with a minor leadership role, encompassing the mentoring of other team members and upholding technical excellence across all team outputs. &lt;/p&gt;&lt;p&gt;Responsibilities: &lt;/p&gt;&lt;ul&gt; &lt;li&gt;Developing and maintaining web applications using HTML, CSS, JavaScript, and PHP. &lt;/li&gt; &lt;li&gt;Managing and optimizing WordPress-based websites, including theme and plugin development. &lt;/li&gt; &lt;li&gt;Configuring and maintaining web servers using Apache and Nginx, ensuring high availability and performance. &lt;/li&gt; &lt;li&gt;Implementing web design using CSS with the BEM (Block Element Modifier) approach to ensure clean, easily maintainable, and scalable codes. &lt;/li&gt; &lt;li&gt;Utilizing Server Side Includes (SSI) for dynamic web content generation. &lt;/li&gt; &lt;li&gt;Working with Docker for containerization, ensuring consistency across development, testing, and production environments. &lt;/li&gt; &lt;li&gt;Implementing and managing auxiliary services like Visual Website Optimizer (VWO) and Google Tag Manager (GTM) for web analytics and A/B testing. &lt;/li&gt; &lt;li&gt;Designing and managing Jenkins pipelines to automate builds and tests, ensuring efficient and streamlined development processes. &lt;/li&gt; &lt;li&gt;Developing and integrating headless CMS architectures to improve website performance and scalability. &lt;/li&gt; &lt;li&gt;Collaborating with cross-functional teams to understand requirements and provide technical solutions. &lt;/li&gt; &lt;li&gt;Staying updated with emerging trends and technologies in web development. &lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Requirements&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt; &lt;li&gt;Minimum of 5 years of hands-on experience in software development, with encompassing frontend, backend, and DevOps, with proficiency in WordPress.  &lt;/li&gt; &lt;li&gt;Strong expertise in HTML, CSS (including BEM methodology), JavaScript, and PHP. &lt;/li&gt; &lt;li&gt;Proven experience with WordPress development, including custom themes and plugins. &lt;/li&gt; &lt;li&gt;Solid understanding of web server technologies (Apache, Nginx) and SSI. &lt;/li&gt; &lt;li&gt;Proficient in Docker and containerized application development. &lt;/li&gt; &lt;li&gt;Experience with Jenkins pipelines and best practices in automated build and testing processes. &lt;/li&gt; &lt;li&gt;Familiarity with headless CMS architectures and their integration. &lt;/li&gt; &lt;li&gt;Knowledge of auxiliary services like VWO and GTM. &lt;/li&gt; &lt;li&gt;Excellent problem-solving skills and attention to detail. &lt;/li&gt; &lt;li&gt;Strong communication and teamwork skills. &lt;/li&gt; &lt;/ul&gt;&lt;p&gt;Additional Requirements: &lt;/p&gt;&lt;ul&gt; &lt;li&gt;Updated with the technology landscape, including current and future trends. &lt;/li&gt; &lt;li&gt;Proven track record in various software development projects. &lt;/li&gt; &lt;li&gt;Proficiency in system-level design and web services. &lt;/li&gt; &lt;li&gt;Experience with version control systems, such as Git. &lt;/li&gt; &lt;li&gt;Familiarity with testing frameworks, spanning unit and integration testing. &lt;/li&gt; &lt;li&gt;Can communicate complex technical concepts to diverse audiences. &lt;/li&gt; &lt;li&gt;Adaptability to ever-changing conditions and priorities.&lt;/li&gt; &lt;/ul&gt;&lt;p&gt;We're seeking a trailblazer who personifies agility through the following qualities and traits:&lt;/p&gt;&lt;ul&gt; &lt;li&gt;Proactive, adaptable, and flexible&lt;/li&gt; &lt;li&gt;Highly professional&lt;/li&gt; &lt;li&gt;Willing to go the extra mile to achieve desired outcomes&lt;/li&gt; &lt;li&gt;With strong collaboration and communication skills to work effectively with cross-functional teams&lt;/li&gt; &lt;li&gt;With strong problem-solving skills&lt;/li&gt; &lt;li&gt;Committed to continuous improvements and willing to experiment with new approaches and techniques to work processes&lt;/li&gt; &lt;/ul&gt;
-                                            &lt;div class="view_opening_cont jobs-single__btn"&gt;
-                                                &lt;a href="https://apply.workable.com/j/FEEF64DF6D/apply" target="_blank" class="btn btn-primary btn-med btn-view-opening"&gt;Apply Now&lt;/a&gt;
-                                            &lt;/div&gt;
-                                            &lt;!--?php endif; ?--&gt;</v>
-      </c>
-    </row>
-    <row r="12" xml:space="preserve">
+        <v>N/A</v>
+      </c>
+      <c r="F11" t="str">
+        <v>&lt;p&gt;As a Senior WordPress Full Stack Engineer, you will play a crucial role in the development and maintenance of sophisticated web applications, specifically focusing on creating and optimizing WordPress sites within the LegalMatch platform. You will be instrumental in managing a range of web servers and executing efficient containerization strategies. A significant part of your role involves collaborating with various teams to craft and implement technology solutions that align with our goals. &lt;/p&gt;&lt;p&gt;This position is central to our company's commitment to delivering consistent, top-tier software solutions. It blends hands-on coding and technical responsibilities with a minor leadership role, encompassing the mentoring of other team members and upholding technical excellence across all team outputs. &lt;/p&gt;&lt;p&gt;Responsibilities: &lt;/p&gt;&lt;ul&gt; &lt;li&gt;Developing and maintaining web applications using HTML, CSS, JavaScript, and PHP. &lt;/li&gt; &lt;li&gt;Managing and optimizing WordPress-based websites, including theme and plugin development. &lt;/li&gt; &lt;li&gt;Configuring and maintaining web servers using Apache and Nginx, ensuring high availability and performance. &lt;/li&gt; &lt;li&gt;Implementing web design using CSS with the BEM (Block Element Modifier) approach to ensure clean, easily maintainable, and scalable codes. &lt;/li&gt; &lt;li&gt;Utilizing Server Side Includes (SSI) for dynamic web content generation. &lt;/li&gt; &lt;li&gt;Working with Docker for containerization, ensuring consistency across development, testing, and production environments. &lt;/li&gt; &lt;li&gt;Implementing and managing auxiliary services like Visual Website Optimizer (VWO) and Google Tag Manager (GTM) for web analytics and A/B testing. &lt;/li&gt; &lt;li&gt;Designing and managing Jenkins pipelines to automate builds and tests, ensuring efficient and streamlined development processes. &lt;/li&gt; &lt;li&gt;Developing and integrating headless CMS architectures to improve website performance and scalability. &lt;/li&gt; &lt;li&gt;Collaborating with cross-functional teams to understand requirements and provide technical solutions. &lt;/li&gt; &lt;li&gt;Staying updated with emerging trends and technologies in web development. &lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Requirements&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt; &lt;li&gt;Minimum of 5 years of hands-on experience in software development, with encompassing frontend, backend, and DevOps, with proficiency in WordPress.  &lt;/li&gt; &lt;li&gt;Strong expertise in HTML, CSS (including BEM methodology), JavaScript, and PHP. &lt;/li&gt; &lt;li&gt;Proven experience with WordPress development, including custom themes and plugins. &lt;/li&gt; &lt;li&gt;Solid understanding of web server technologies (Apache, Nginx) and SSI. &lt;/li&gt; &lt;li&gt;Proficient in Docker and containerized application development. &lt;/li&gt; &lt;li&gt;Experience with Jenkins pipelines and best practices in automated build and testing processes. &lt;/li&gt; &lt;li&gt;Familiarity with headless CMS architectures and their integration. &lt;/li&gt; &lt;li&gt;Knowledge of auxiliary services like VWO and GTM. &lt;/li&gt; &lt;li&gt;Excellent problem-solving skills and attention to detail. &lt;/li&gt; &lt;li&gt;Strong communication and teamwork skills. &lt;/li&gt; &lt;/ul&gt;&lt;p&gt;Additional Requirements: &lt;/p&gt;&lt;ul&gt; &lt;li&gt;Updated with the technology landscape, including current and future trends. &lt;/li&gt; &lt;li&gt;Proven track record in various software development projects. &lt;/li&gt; &lt;li&gt;Proficiency in system-level design and web services. &lt;/li&gt; &lt;li&gt;Experience with version control systems, such as Git. &lt;/li&gt; &lt;li&gt;Familiarity with testing frameworks, spanning unit and integration testing. &lt;/li&gt; &lt;li&gt;Can communicate complex technical concepts to diverse audiences. &lt;/li&gt; &lt;li&gt;Adaptability to ever-changing conditions and priorities.&lt;/li&gt; &lt;/ul&gt;&lt;p&gt;We're seeking a trailblazer who personifies agility through the following qualities and traits:&lt;/p&gt;&lt;ul&gt; &lt;li&gt;Proactive, adaptable, and flexible&lt;/li&gt; &lt;li&gt;Highly professional&lt;/li&gt; &lt;li&gt;Willing to go the extra mile to achieve desired outcomes&lt;/li&gt; &lt;li&gt;With strong collaboration and communication skills to work effectively with cross-functional teams&lt;/li&gt; &lt;li&gt;With strong problem-solving skills&lt;/li&gt; &lt;li&gt;Committed to continuous improvements and willing to experiment with new approaches and techniques to work processes&lt;/li&gt; &lt;/ul&gt;</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="str">
         <v>Sr. Java Full Stack Engineer (Remote, Philippines)</v>
       </c>
@@ -673,20 +633,16 @@
         <v>https://legalmatch.ph/jobs/sr-java-full-stack-engineer-remote-philippines</v>
       </c>
       <c r="D12" t="str">
-        <v>&lt;li&gt;collaborating closely with team members, scrum masters, and project owners to design, develop, test, and maintain web-based applications. &lt;/li&gt;</v>
+        <v>N/A</v>
       </c>
       <c r="E12" t="str">
-        <v>&lt;li&gt;collaborating closely with team members, scrum masters, and project owners to design, develop, test, and maintain web-based applications. &lt;/li&gt;</v>
-      </c>
-      <c r="F12" t="str" xml:space="preserve">
-        <v xml:space="preserve">&lt;p&gt;As a Senior Java Full Stack Engineer, you will play a central role in building and maintaining the software that powers the LegalMatch platform. You will actively participate in the development of top-quality software products and enhance our existing platforms. With a solid understanding of software development lifecycles, up-to-date software engineering technologies, and methodologies, you are vital to the success and evolution of our software offerings. &lt;/p&gt;&lt;p&gt;This role is pivotal for our company's mission to deliver consistent, high-quality software solutions. It combines coding and technical tasks with minor leadership responsibilities, such as guiding junior members and ensuring technical excellence in the team's deliverables. &lt;/p&gt;&lt;p&gt;&lt;strong&gt;Your responsibilities will include:&lt;/strong&gt; &lt;/p&gt;&lt;ul&gt;&lt;li&gt;collaborating closely with team members, scrum masters, and project owners to design, develop, test, and maintain web-based applications. &lt;/li&gt;&lt;/ul&gt;&lt;ul&gt; &lt;li&gt;contributing actively to the design, development, and implementation of new software systems and improvements to existing systems. &lt;/li&gt; &lt;li&gt;ensuring timely delivery of software engineering projects, meeting the agreed-upon quality standards. &lt;/li&gt; &lt;li&gt;continually enhancing technical knowledge and sharing insights with the team. &lt;/li&gt; &lt;li&gt;upholding high standards of software quality through established practices and habits. &lt;/li&gt; &lt;li&gt;assisting in diagnosing system issues and implementing resolution strategies.&lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Requirements&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt; &lt;li&gt;With a minimum of 5 years of hands-on experience in software development, encompassing frontend, backend, and DevOps, with proficiency in Java. &lt;/li&gt; &lt;li&gt;Has an extensive knowledge of Java frameworks, especially Spring and Spring Boot. &lt;/li&gt; &lt;li&gt;Has a solid experience with various programming languages such as Java, C++, C#.Net, Python, JavaScript, etc.  &lt;/li&gt; &lt;li&gt;Competent in Object Oriented Design, functional programming, and even with straight forward scripting to solve problems. &lt;/li&gt; &lt;/ul&gt;&lt;ul&gt; &lt;li&gt;Proficiency in frontend development tools and frameworks, including Vanilla JS and React. &lt;/li&gt; &lt;li&gt;Has the willingness to work on legacy codes, particularly the Struts Framework. &lt;/li&gt; &lt;li&gt;Competency in Object-Oriented Design, functional programming, and scripting. &lt;/li&gt; &lt;li&gt;Familiarity with modern software architectures (e.g., microservices) and deployment tools (e.g., CI/CD, Docker). &lt;/li&gt; &lt;li&gt;Commitment to shared software quality responsibilities. &lt;/li&gt; &lt;/ul&gt;&lt;ul&gt; &lt;li&gt;Has an experience with unit testing and Test-Driven Development (TDD). &lt;/li&gt; &lt;li&gt;Familiar with Agile/Scrum methodologies. &lt;/li&gt; &lt;li&gt;Knowledge of both SQL and NoSQL database systems. &lt;/li&gt; &lt;li&gt;Possesses a robust problem-solving skills. &lt;/li&gt; &lt;li&gt;With effective communication and interpersonal skills. &lt;/li&gt; &lt;/ul&gt;&lt;ul&gt;&lt;li&gt;Familiarity with cloud platforms (e.g., AWS, Azure, Google Cloud) is a plus. &lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Additional Requirements:&lt;/strong&gt; &lt;/p&gt;&lt;ul&gt; &lt;li&gt;Updated with the technology landscape, including current and future trends. &lt;/li&gt; &lt;li&gt;Has a proven track record in various software development projects. &lt;/li&gt; &lt;li&gt;Proficiency in system-level design and web services. &lt;/li&gt; &lt;/ul&gt;&lt;ul&gt; &lt;li&gt;Has an experience with version control systems, such as Git. &lt;/li&gt; &lt;li&gt;Familiarity with testing frameworks, spanning unit, and integration testing. &lt;/li&gt; &lt;li&gt;Ability to communicate complex technical concepts to diverse audiences. &lt;/li&gt; &lt;li&gt;Adaptability to ever-changing conditions and priorities.&lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Our ideal candidate possesses the following traits:&lt;/strong&gt; &lt;/p&gt;&lt;ul&gt; &lt;li&gt;proactive, adaptable, and flexible &lt;/li&gt; &lt;li&gt;highly professional &lt;/li&gt; &lt;li&gt;has the willingness to go the extra mile to achieve desired outcomes &lt;/li&gt; &lt;li&gt;with strong collaboration and communication skills to work effectively with cross-functional teams &lt;/li&gt; &lt;/ul&gt;&lt;ul&gt; &lt;li&gt;with strong problem-solving skills  &lt;/li&gt; &lt;li&gt;committed to continuous improvements and willing to experiment with new approaches and techniques to work processes&lt;/li&gt; &lt;/ul&gt;
-                                            &lt;div class="view_opening_cont jobs-single__btn"&gt;
-                                                &lt;a href="https://apply.workable.com/j/09FA54F975/apply" target="_blank" class="btn btn-primary btn-med btn-view-opening"&gt;Apply Now&lt;/a&gt;
-                                            &lt;/div&gt;
-                                            &lt;!--?php endif; ?--&gt;</v>
-      </c>
-    </row>
-    <row r="13" xml:space="preserve">
+        <v>N/A</v>
+      </c>
+      <c r="F12" t="str">
+        <v>&lt;p&gt;As a Senior Java Full Stack Engineer, you will play a central role in building and maintaining the software that powers the LegalMatch platform. You will actively participate in the development of top-quality software products and enhance our existing platforms. With a solid understanding of software development lifecycles, up-to-date software engineering technologies, and methodologies, you are vital to the success and evolution of our software offerings. &lt;/p&gt;&lt;p&gt;This role is pivotal for our company's mission to deliver consistent, high-quality software solutions. It combines coding and technical tasks with minor leadership responsibilities, such as guiding junior members and ensuring technical excellence in the team's deliverables. &lt;/p&gt;&lt;p&gt;&lt;strong&gt;Your responsibilities will include:&lt;/strong&gt; &lt;/p&gt;&lt;ul&gt;&lt;li&gt;collaborating closely with team members, scrum masters, and project owners to design, develop, test, and maintain web-based applications. &lt;/li&gt;&lt;/ul&gt;&lt;ul&gt; &lt;li&gt;contributing actively to the design, development, and implementation of new software systems and improvements to existing systems. &lt;/li&gt; &lt;li&gt;ensuring timely delivery of software engineering projects, meeting the agreed-upon quality standards. &lt;/li&gt; &lt;li&gt;continually enhancing technical knowledge and sharing insights with the team. &lt;/li&gt; &lt;li&gt;upholding high standards of software quality through established practices and habits. &lt;/li&gt; &lt;li&gt;assisting in diagnosing system issues and implementing resolution strategies.&lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Requirements&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt; &lt;li&gt;With a minimum of 5 years of hands-on experience in software development, encompassing frontend, backend, and DevOps, with proficiency in Java. &lt;/li&gt; &lt;li&gt;Has an extensive knowledge of Java frameworks, especially Spring and Spring Boot. &lt;/li&gt; &lt;li&gt;Has a solid experience with various programming languages such as Java, C++, C#.Net, Python, JavaScript, etc.  &lt;/li&gt; &lt;li&gt;Competent in Object Oriented Design, functional programming, and even with straight forward scripting to solve problems. &lt;/li&gt; &lt;/ul&gt;&lt;ul&gt; &lt;li&gt;Proficiency in frontend development tools and frameworks, including Vanilla JS and React. &lt;/li&gt; &lt;li&gt;Has the willingness to work on legacy codes, particularly the Struts Framework. &lt;/li&gt; &lt;li&gt;Competency in Object-Oriented Design, functional programming, and scripting. &lt;/li&gt; &lt;li&gt;Familiarity with modern software architectures (e.g., microservices) and deployment tools (e.g., CI/CD, Docker). &lt;/li&gt; &lt;li&gt;Commitment to shared software quality responsibilities. &lt;/li&gt; &lt;/ul&gt;&lt;ul&gt; &lt;li&gt;Has an experience with unit testing and Test-Driven Development (TDD). &lt;/li&gt; &lt;li&gt;Familiar with Agile/Scrum methodologies. &lt;/li&gt; &lt;li&gt;Knowledge of both SQL and NoSQL database systems. &lt;/li&gt; &lt;li&gt;Possesses a robust problem-solving skills. &lt;/li&gt; &lt;li&gt;With effective communication and interpersonal skills. &lt;/li&gt; &lt;/ul&gt;&lt;ul&gt;&lt;li&gt;Familiarity with cloud platforms (e.g., AWS, Azure, Google Cloud) is a plus. &lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Additional Requirements:&lt;/strong&gt; &lt;/p&gt;&lt;ul&gt; &lt;li&gt;Updated with the technology landscape, including current and future trends. &lt;/li&gt; &lt;li&gt;Has a proven track record in various software development projects. &lt;/li&gt; &lt;li&gt;Proficiency in system-level design and web services. &lt;/li&gt; &lt;/ul&gt;&lt;ul&gt; &lt;li&gt;Has an experience with version control systems, such as Git. &lt;/li&gt; &lt;li&gt;Familiarity with testing frameworks, spanning unit, and integration testing. &lt;/li&gt; &lt;li&gt;Ability to communicate complex technical concepts to diverse audiences. &lt;/li&gt; &lt;li&gt;Adaptability to ever-changing conditions and priorities.&lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Our ideal candidate possesses the following traits:&lt;/strong&gt; &lt;/p&gt;&lt;ul&gt; &lt;li&gt;proactive, adaptable, and flexible &lt;/li&gt; &lt;li&gt;highly professional &lt;/li&gt; &lt;li&gt;has the willingness to go the extra mile to achieve desired outcomes &lt;/li&gt; &lt;li&gt;with strong collaboration and communication skills to work effectively with cross-functional teams &lt;/li&gt; &lt;/ul&gt;&lt;ul&gt; &lt;li&gt;with strong problem-solving skills  &lt;/li&gt; &lt;li&gt;committed to continuous improvements and willing to experiment with new approaches and techniques to work processes&lt;/li&gt; &lt;/ul&gt;</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="str">
         <v>Team Lead - Lead Gen Team (Remote, Night Shift)</v>
       </c>
@@ -697,20 +653,16 @@
         <v>https://legalmatch.ph/jobs/team-lead-lead-gen-team-remote-night-shift</v>
       </c>
       <c r="D13" t="str">
-        <v xml:space="preserve"> &lt;li&gt;ensuring that the team reaches their target, including doing calls if needed as well as monitoring individual performances on assigned shift&lt;/li&gt; &lt;li&gt;supervising day-to-day activities of the team, setting weekly targets, and working with team members to eliminate speed and/or delivery blockers&lt;/li&gt; &lt;li&gt;reviewing the quality of calls between our team and customers, providing feedback, and identifying areas for improvement&lt;/li&gt; &lt;li&gt;driving efforts to create the best possible customer experience while driving sales growth&lt;/li&gt; &lt;li&gt;coaching team members and providing feedback as needed&lt;/li&gt; &lt;li&gt;analyzing performance data and looking for ways to continually optimize and improve&lt;/li&gt; &lt;li&gt;implementing continuous improvement initiatives and monitoring their results&lt;/li&gt; &lt;li&gt;leading team events, including weekly planning and review, as well as ad hoc meetings&lt;/li&gt; &lt;li&gt;working with the business to regularly update the company’s voice lead gen goals based on capacity as well as evolving business needs&lt;/li&gt; &lt;li&gt;reporting on team progress, identifying areas for optimization and improvement&lt;/li&gt; &lt;li&gt;participating in recruiting and relevant HR activities (performance review, giving performance callouts, and others)&lt;/li&gt; </v>
+        <v>N/A</v>
       </c>
       <c r="E13" t="str">
-        <v xml:space="preserve"> &lt;li&gt;ensuring that the team reaches their target, including doing calls if needed as well as monitoring individual performances on assigned shift&lt;/li&gt; &lt;li&gt;supervising day-to-day activities of the team, setting weekly targets, and working with team members to eliminate speed and/or delivery blockers&lt;/li&gt; &lt;li&gt;reviewing the quality of calls between our team and customers, providing feedback, and identifying areas for improvement&lt;/li&gt; &lt;li&gt;driving efforts to create the best possible customer experience while driving sales growth&lt;/li&gt; &lt;li&gt;coaching team members and providing feedback as needed&lt;/li&gt; &lt;li&gt;analyzing performance data and looking for ways to continually optimize and improve&lt;/li&gt; &lt;li&gt;implementing continuous improvement initiatives and monitoring their results&lt;/li&gt; &lt;li&gt;leading team events, including weekly planning and review, as well as ad hoc meetings&lt;/li&gt; &lt;li&gt;working with the business to regularly update the company’s voice lead gen goals based on capacity as well as evolving business needs&lt;/li&gt; &lt;li&gt;reporting on team progress, identifying areas for optimization and improvement&lt;/li&gt; &lt;li&gt;participating in recruiting and relevant HR activities (performance review, giving performance callouts, and others)&lt;/li&gt; </v>
-      </c>
-      <c r="F13" t="str" xml:space="preserve">
-        <v xml:space="preserve">&lt;p&gt;As a Team Leader, you will play a critical role in growing the Appointment Setting Team by demonstrating excellence, motivating team members, and creating a supportive environment for continuous learning and open communication. You will drive initiatives, identify best practices, and leverage data to ensure exceptional outcomes and outstanding results for the team and the company.&lt;/p&gt;&lt;p&gt;Your responsibilities include:  &lt;/p&gt;&lt;ul&gt; &lt;li&gt;ensuring that the team reaches their target, including doing calls if needed as well as monitoring individual performances on assigned shift&lt;/li&gt; &lt;li&gt;supervising day-to-day activities of the team, setting weekly targets, and working with team members to eliminate speed and/or delivery blockers&lt;/li&gt; &lt;li&gt;reviewing the quality of calls between our team and customers, providing feedback, and identifying areas for improvement&lt;/li&gt; &lt;li&gt;driving efforts to create the best possible customer experience while driving sales growth&lt;/li&gt; &lt;li&gt;coaching team members and providing feedback as needed&lt;/li&gt; &lt;li&gt;analyzing performance data and looking for ways to continually optimize and improve&lt;/li&gt; &lt;li&gt;implementing continuous improvement initiatives and monitoring their results&lt;/li&gt; &lt;li&gt;leading team events, including weekly planning and review, as well as ad hoc meetings&lt;/li&gt; &lt;li&gt;working with the business to regularly update the company’s voice lead gen goals based on capacity as well as evolving business needs&lt;/li&gt; &lt;li&gt;reporting on team progress, identifying areas for optimization and improvement&lt;/li&gt; &lt;li&gt;participating in recruiting and relevant HR activities (performance review, giving performance callouts, and others)&lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Requirements&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt; &lt;li&gt;at least 3 years of experience in appointment setting/sales, at least 1 year of successful leadership experience required&lt;/li&gt; &lt;li&gt;proven track record of achieving and exceeding sales targets and improving team performance&lt;/li&gt; &lt;li&gt;familiarity with appointment setting and sales software (Salesforce experience is a plus)&lt;/li&gt; &lt;li&gt;advanced skills in MS Excel&lt;/li&gt; &lt;li&gt;with excellent communication and interpersonal skills&lt;/li&gt; &lt;li&gt;with solid coaching and training skills&lt;/li&gt; &lt;li&gt;willingness to go the extra mile to achieve desired outcomes&lt;/li&gt; &lt;li&gt;ability to motivate and inspire team members&lt;/li&gt; &lt;li&gt;a bachelor's degree in any relevant field&lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;As an agile company, we’d love to work with individuals who are:&lt;/p&gt;&lt;ul&gt; &lt;li&gt;proactive, adaptable, and flexible&lt;/li&gt; &lt;li&gt;highly professional and collaborative&lt;/li&gt; &lt;li&gt;committed to continuous improvements and willing to experiment with new approaches and techniques to work processes&lt;/li&gt; &lt;/ul&gt;
-                                            &lt;div class="view_opening_cont jobs-single__btn"&gt;
-                                                &lt;a href="https://apply.workable.com/j/7D63FD9DAE/apply" target="_blank" class="btn btn-primary btn-med btn-view-opening"&gt;Apply Now&lt;/a&gt;
-                                            &lt;/div&gt;
-                                            &lt;!--?php endif; ?--&gt;</v>
-      </c>
-    </row>
-    <row r="14" xml:space="preserve">
+        <v>N/A</v>
+      </c>
+      <c r="F13" t="str">
+        <v>&lt;p&gt;As a Team Leader, you will play a critical role in growing the Appointment Setting Team by demonstrating excellence, motivating team members, and creating a supportive environment for continuous learning and open communication. You will drive initiatives, identify best practices, and leverage data to ensure exceptional outcomes and outstanding results for the team and the company.&lt;/p&gt;&lt;p&gt;Your responsibilities include:  &lt;/p&gt;&lt;ul&gt; &lt;li&gt;ensuring that the team reaches their target, including doing calls if needed as well as monitoring individual performances on assigned shift&lt;/li&gt; &lt;li&gt;supervising day-to-day activities of the team, setting weekly targets, and working with team members to eliminate speed and/or delivery blockers&lt;/li&gt; &lt;li&gt;reviewing the quality of calls between our team and customers, providing feedback, and identifying areas for improvement&lt;/li&gt; &lt;li&gt;driving efforts to create the best possible customer experience while driving sales growth&lt;/li&gt; &lt;li&gt;coaching team members and providing feedback as needed&lt;/li&gt; &lt;li&gt;analyzing performance data and looking for ways to continually optimize and improve&lt;/li&gt; &lt;li&gt;implementing continuous improvement initiatives and monitoring their results&lt;/li&gt; &lt;li&gt;leading team events, including weekly planning and review, as well as ad hoc meetings&lt;/li&gt; &lt;li&gt;working with the business to regularly update the company’s voice lead gen goals based on capacity as well as evolving business needs&lt;/li&gt; &lt;li&gt;reporting on team progress, identifying areas for optimization and improvement&lt;/li&gt; &lt;li&gt;participating in recruiting and relevant HR activities (performance review, giving performance callouts, and others)&lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Requirements&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt; &lt;li&gt;at least 3 years of experience in appointment setting/sales, at least 1 year of successful leadership experience required&lt;/li&gt; &lt;li&gt;proven track record of achieving and exceeding sales targets and improving team performance&lt;/li&gt; &lt;li&gt;familiarity with appointment setting and sales software (Salesforce experience is a plus)&lt;/li&gt; &lt;li&gt;advanced skills in MS Excel&lt;/li&gt; &lt;li&gt;with excellent communication and interpersonal skills&lt;/li&gt; &lt;li&gt;with solid coaching and training skills&lt;/li&gt; &lt;li&gt;willingness to go the extra mile to achieve desired outcomes&lt;/li&gt; &lt;li&gt;ability to motivate and inspire team members&lt;/li&gt; &lt;li&gt;a bachelor's degree in any relevant field&lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;As an agile company, we’d love to work with individuals who are:&lt;/p&gt;&lt;ul&gt; &lt;li&gt;proactive, adaptable, and flexible&lt;/li&gt; &lt;li&gt;highly professional and collaborative&lt;/li&gt; &lt;li&gt;committed to continuous improvements and willing to experiment with new approaches and techniques to work processes&lt;/li&gt; &lt;/ul&gt;</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="str">
         <v>Team Lead - Lead Gen Team (Remote, Night Shift) 1001</v>
       </c>
@@ -721,20 +673,16 @@
         <v>https://legalmatch.ph/jobs/team-lead-lead-gen-team-remote-night-shift-1001</v>
       </c>
       <c r="D14" t="str">
-        <v xml:space="preserve"> &lt;li&gt;ensuring that the team reaches their target, including doing calls if needed as well as monitoring individual performances on assigned shift&lt;/li&gt; &lt;li&gt;supervising day-to-day activities of the team, setting weekly targets, and working with team members to eliminate speed and/or delivery blockers&lt;/li&gt; &lt;li&gt;reviewing the quality of calls between our team and customers, providing feedback, and identifying areas for improvement&lt;/li&gt; &lt;li&gt;driving efforts to create the best possible customer experience while driving sales growth&lt;/li&gt; &lt;li&gt;coaching team members and providing feedback as needed&lt;/li&gt; &lt;li&gt;analyzing performance data and looking for ways to continually optimize and improve&lt;/li&gt; &lt;li&gt;implementing continuous improvement initiatives and monitoring their results&lt;/li&gt; &lt;li&gt;leading team events, including weekly planning and review, as well as ad hoc meetings&lt;/li&gt; &lt;li&gt;working with the business to regularly update the company’s voice lead gen goals based on capacity as well as evolving business needs&lt;/li&gt; &lt;li&gt;reporting on team progress, identifying areas for optimization and improvement&lt;/li&gt; &lt;li&gt;participating in recruiting and relevant HR activities (performance review, giving performance callouts, and others)&lt;/li&gt; </v>
+        <v>N/A</v>
       </c>
       <c r="E14" t="str">
-        <v xml:space="preserve"> &lt;li&gt;ensuring that the team reaches their target, including doing calls if needed as well as monitoring individual performances on assigned shift&lt;/li&gt; &lt;li&gt;supervising day-to-day activities of the team, setting weekly targets, and working with team members to eliminate speed and/or delivery blockers&lt;/li&gt; &lt;li&gt;reviewing the quality of calls between our team and customers, providing feedback, and identifying areas for improvement&lt;/li&gt; &lt;li&gt;driving efforts to create the best possible customer experience while driving sales growth&lt;/li&gt; &lt;li&gt;coaching team members and providing feedback as needed&lt;/li&gt; &lt;li&gt;analyzing performance data and looking for ways to continually optimize and improve&lt;/li&gt; &lt;li&gt;implementing continuous improvement initiatives and monitoring their results&lt;/li&gt; &lt;li&gt;leading team events, including weekly planning and review, as well as ad hoc meetings&lt;/li&gt; &lt;li&gt;working with the business to regularly update the company’s voice lead gen goals based on capacity as well as evolving business needs&lt;/li&gt; &lt;li&gt;reporting on team progress, identifying areas for optimization and improvement&lt;/li&gt; &lt;li&gt;participating in recruiting and relevant HR activities (performance review, giving performance callouts, and others)&lt;/li&gt; </v>
-      </c>
-      <c r="F14" t="str" xml:space="preserve">
-        <v xml:space="preserve">&lt;p&gt;As a Team Leader, you will play a critical role in growing the Appointment Setting Team by demonstrating excellence, motivating team members, and creating a supportive environment for continuous learning and open communication. You will drive initiatives, identify best practices, and leverage data to ensure exceptional outcomes and outstanding results for the team and the company.&lt;/p&gt;&lt;p&gt;Your responsibilities include:  &lt;/p&gt;&lt;ul&gt; &lt;li&gt;ensuring that the team reaches their target, including doing calls if needed as well as monitoring individual performances on assigned shift&lt;/li&gt; &lt;li&gt;supervising day-to-day activities of the team, setting weekly targets, and working with team members to eliminate speed and/or delivery blockers&lt;/li&gt; &lt;li&gt;reviewing the quality of calls between our team and customers, providing feedback, and identifying areas for improvement&lt;/li&gt; &lt;li&gt;driving efforts to create the best possible customer experience while driving sales growth&lt;/li&gt; &lt;li&gt;coaching team members and providing feedback as needed&lt;/li&gt; &lt;li&gt;analyzing performance data and looking for ways to continually optimize and improve&lt;/li&gt; &lt;li&gt;implementing continuous improvement initiatives and monitoring their results&lt;/li&gt; &lt;li&gt;leading team events, including weekly planning and review, as well as ad hoc meetings&lt;/li&gt; &lt;li&gt;working with the business to regularly update the company’s voice lead gen goals based on capacity as well as evolving business needs&lt;/li&gt; &lt;li&gt;reporting on team progress, identifying areas for optimization and improvement&lt;/li&gt; &lt;li&gt;participating in recruiting and relevant HR activities (performance review, giving performance callouts, and others)&lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Requirements&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt; &lt;li&gt;at least 3 years of experience in appointment setting/sales, at least 1 year of successful leadership experience required&lt;/li&gt; &lt;li&gt;proven track record of achieving and exceeding sales targets and improving team performance&lt;/li&gt; &lt;li&gt;familiarity with appointment setting and sales software (Salesforce experience is a plus)&lt;/li&gt; &lt;li&gt;advanced skills in MS Excel&lt;/li&gt; &lt;li&gt;with excellent communication and interpersonal skills&lt;/li&gt; &lt;li&gt;with solid coaching and training skills&lt;/li&gt; &lt;li&gt;willingness to go the extra mile to achieve desired outcomes&lt;/li&gt; &lt;li&gt;ability to motivate and inspire team members&lt;/li&gt; &lt;li&gt;a bachelor's degree in any relevant field&lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;As an agile company, we’d love to work with individuals who are:&lt;/p&gt;&lt;ul&gt; &lt;li&gt;proactive, adaptable, and flexible&lt;/li&gt; &lt;li&gt;highly professional and collaborative&lt;/li&gt; &lt;li&gt;committed to continuous improvements and willing to experiment with new approaches and techniques to work processes&lt;/li&gt; &lt;/ul&gt;
-                                            &lt;div class="view_opening_cont jobs-single__btn"&gt;
-                                                &lt;a href="https://apply.workable.com/j/A9FC14D106/apply" target="_blank" class="btn btn-primary btn-med btn-view-opening"&gt;Apply Now&lt;/a&gt;
-                                            &lt;/div&gt;
-                                            &lt;!--?php endif; ?--&gt;</v>
-      </c>
-    </row>
-    <row r="15" xml:space="preserve">
+        <v>N/A</v>
+      </c>
+      <c r="F14" t="str">
+        <v>&lt;p&gt;As a Team Leader, you will play a critical role in growing the Appointment Setting Team by demonstrating excellence, motivating team members, and creating a supportive environment for continuous learning and open communication. You will drive initiatives, identify best practices, and leverage data to ensure exceptional outcomes and outstanding results for the team and the company.&lt;/p&gt;&lt;p&gt;Your responsibilities include:  &lt;/p&gt;&lt;ul&gt; &lt;li&gt;ensuring that the team reaches their target, including doing calls if needed as well as monitoring individual performances on assigned shift&lt;/li&gt; &lt;li&gt;supervising day-to-day activities of the team, setting weekly targets, and working with team members to eliminate speed and/or delivery blockers&lt;/li&gt; &lt;li&gt;reviewing the quality of calls between our team and customers, providing feedback, and identifying areas for improvement&lt;/li&gt; &lt;li&gt;driving efforts to create the best possible customer experience while driving sales growth&lt;/li&gt; &lt;li&gt;coaching team members and providing feedback as needed&lt;/li&gt; &lt;li&gt;analyzing performance data and looking for ways to continually optimize and improve&lt;/li&gt; &lt;li&gt;implementing continuous improvement initiatives and monitoring their results&lt;/li&gt; &lt;li&gt;leading team events, including weekly planning and review, as well as ad hoc meetings&lt;/li&gt; &lt;li&gt;working with the business to regularly update the company’s voice lead gen goals based on capacity as well as evolving business needs&lt;/li&gt; &lt;li&gt;reporting on team progress, identifying areas for optimization and improvement&lt;/li&gt; &lt;li&gt;participating in recruiting and relevant HR activities (performance review, giving performance callouts, and others)&lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Requirements&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt; &lt;li&gt;at least 3 years of experience in appointment setting/sales, at least 1 year of successful leadership experience required&lt;/li&gt; &lt;li&gt;proven track record of achieving and exceeding sales targets and improving team performance&lt;/li&gt; &lt;li&gt;familiarity with appointment setting and sales software (Salesforce experience is a plus)&lt;/li&gt; &lt;li&gt;advanced skills in MS Excel&lt;/li&gt; &lt;li&gt;with excellent communication and interpersonal skills&lt;/li&gt; &lt;li&gt;with solid coaching and training skills&lt;/li&gt; &lt;li&gt;willingness to go the extra mile to achieve desired outcomes&lt;/li&gt; &lt;li&gt;ability to motivate and inspire team members&lt;/li&gt; &lt;li&gt;a bachelor's degree in any relevant field&lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;As an agile company, we’d love to work with individuals who are:&lt;/p&gt;&lt;ul&gt; &lt;li&gt;proactive, adaptable, and flexible&lt;/li&gt; &lt;li&gt;highly professional and collaborative&lt;/li&gt; &lt;li&gt;committed to continuous improvements and willing to experiment with new approaches and techniques to work processes&lt;/li&gt; &lt;/ul&gt;</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="str">
         <v>Technical Lead: Java Full Stack (Remote, Philippines)</v>
       </c>
@@ -745,20 +693,16 @@
         <v>https://legalmatch.ph/jobs/technical-lead:-java-full-stack-remote-philippines</v>
       </c>
       <c r="D15" t="str">
-        <v xml:space="preserve"> &lt;li&gt;leading and managing a team of software engineers, fostering a creative and cohesive unit capable of delivering complex software projects &lt;/li&gt; &lt;li&gt;coordinating with scrum masters, project managers and other software engineers to plan, design, develop, test, and maintain web-based and desktop applications &lt;/li&gt; &lt;li&gt;providing technical leadership in all aspects of our software development processes &lt;/li&gt; &lt;li&gt;overseeing the design, development, and implementation of new software systems and enhancements to existing systems &lt;/li&gt; &lt;li&gt;ensuring all software engineering projects are delivered on time and to the agreed quality standards &lt;/li&gt; &lt;li&gt;continually updating technical knowledge and skills and sharing them with the team &lt;/li&gt; &lt;li&gt;maintaining high standards of software quality within the team by establishing good practices and habits &lt;/li&gt; &lt;li&gt;providing regular performance feedback, coaching, and career development to team members &lt;/li&gt; &lt;li&gt;facilitating root cause analysis of system issues and implementing resolution strategies. &lt;/li&gt; </v>
+        <v>N/A</v>
       </c>
       <c r="E15" t="str">
-        <v xml:space="preserve"> &lt;li&gt;leading and managing a team of software engineers, fostering a creative and cohesive unit capable of delivering complex software projects &lt;/li&gt; &lt;li&gt;coordinating with scrum masters, project managers and other software engineers to plan, design, develop, test, and maintain web-based and desktop applications &lt;/li&gt; &lt;li&gt;providing technical leadership in all aspects of our software development processes &lt;/li&gt; &lt;li&gt;overseeing the design, development, and implementation of new software systems and enhancements to existing systems &lt;/li&gt; &lt;li&gt;ensuring all software engineering projects are delivered on time and to the agreed quality standards &lt;/li&gt; &lt;li&gt;continually updating technical knowledge and skills and sharing them with the team &lt;/li&gt; &lt;li&gt;maintaining high standards of software quality within the team by establishing good practices and habits &lt;/li&gt; &lt;li&gt;providing regular performance feedback, coaching, and career development to team members &lt;/li&gt; &lt;li&gt;facilitating root cause analysis of system issues and implementing resolution strategies. &lt;/li&gt; </v>
-      </c>
-      <c r="F15" t="str" xml:space="preserve">
-        <v xml:space="preserve">&lt;p&gt;As a Technical Lead, you will be responsible for leading and implementing technical decisions and efforts of a software engineering team, overseeing and performing the development of high-quality software products, and enhancing our existing software platforms alone or with individuals of the same or similar role. The role requires a combination of strong leadership, advanced technical capabilities, and excellent communication skills. The successful candidate must have a deep understanding of the software development lifecycles, modern software engineering technologies and methodologies, and the ability to guide and inspire a team of talented engineers. &lt;/p&gt;&lt;p&gt;The Tehnical Lead is the basic unit member of a future engineering department capable of taking the business where it needs to go. High performing, skilled engineers - capable of thriving in both a team environment and as individuals. In a gist, this is a coding/technical role with good management ownership mindset. &lt;/p&gt;&lt;p&gt;&lt;strong&gt;Your responsibilities will include:&lt;/strong&gt; &lt;/p&gt;&lt;ul&gt; &lt;li&gt;leading and managing a team of software engineers, fostering a creative and cohesive unit capable of delivering complex software projects &lt;/li&gt; &lt;li&gt;coordinating with scrum masters, project managers and other software engineers to plan, design, develop, test, and maintain web-based and desktop applications &lt;/li&gt; &lt;li&gt;providing technical leadership in all aspects of our software development processes &lt;/li&gt; &lt;li&gt;overseeing the design, development, and implementation of new software systems and enhancements to existing systems &lt;/li&gt; &lt;li&gt;ensuring all software engineering projects are delivered on time and to the agreed quality standards &lt;/li&gt; &lt;li&gt;continually updating technical knowledge and skills and sharing them with the team &lt;/li&gt; &lt;li&gt;maintaining high standards of software quality within the team by establishing good practices and habits &lt;/li&gt; &lt;li&gt;providing regular performance feedback, coaching, and career development to team members &lt;/li&gt; &lt;li&gt;facilitating root cause analysis of system issues and implementing resolution strategies. &lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Requirements&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt; &lt;li&gt;with a minimum of 7 years of hands-on experience in software development, including at least 3 years in a leadership capacity &lt;/li&gt; &lt;li&gt;with extensive experience in various programming languages such as Java, C++, C# dot Net, Python, JavaScript, etc.  &lt;/li&gt; &lt;li&gt;competent in Object Oriented Design, functional programming, and even with straight forward scripting to solve problems. &lt;/li&gt; &lt;li&gt;with solid experience as a full stack developer, capable of working proficiently at both the backend and frontend levels (ex:  HTML, ES6, Virtual DOM like ReactJS, and DOM like bootstrap + jQuery). &lt;/li&gt; &lt;li&gt;is aware of good User Experience (UX) practices and trends, capable of effectively proposing how to improve User Experience and understands when to trust clients/stakeholders on their chosen path of UX &lt;/li&gt; &lt;li&gt;is familiar with modern software architectures (microservices, event-driven architectures) and deployment methodologies and tools (CI/CD, Docker, Kubernetes) &lt;/li&gt; &lt;li&gt;believes that software quality is not the work alone of the Quality Assurance/Control team &lt;/li&gt; &lt;li&gt;has practiced unit testing and Test-Driven Development (TDD and optionally Behavior-Driven Development (BDD) &lt;/li&gt; &lt;li&gt;with experience in software development methodologies like Agile/Scrum. &lt;/li&gt; &lt;li&gt;has a strong knowledge of database systems, both SQL and NoSQL, and entity relationship modelling. &lt;/li&gt; &lt;li&gt;has excellent problem-solving and detail orientation skills &lt;/li&gt; &lt;li&gt;possesses strong communication and interpersonal skills &lt;/li&gt; &lt;li&gt;has proven ability to manage and prioritize multiple, concurrent projects &lt;/li&gt; &lt;li&gt;is familiar with cloud platforms (AWS, Azure, Google Cloud) is a plus &lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Additional Requirements:&lt;/strong&gt; &lt;/p&gt;&lt;ul&gt; &lt;li&gt;has a proven track record of managing all aspects of a successful software product throughout its lifecycle &lt;/li&gt; &lt;li&gt;with solid understanding of the technology landscape including current and emerging technologies and best practices &lt;/li&gt; &lt;li&gt;can inspire and motivate teams to deliver innovative and exciting solutions with an appropriate sense of urgency &lt;/li&gt; &lt;li&gt;has demonstrated success in leading and managing a team of software engineers with a commitment to their growth and professional development &lt;/li&gt; &lt;li&gt;has an exceptional project management and organization skills &lt;/li&gt; &lt;li&gt;with strong customer focus and ability to manage client expectations &lt;/li&gt; &lt;li&gt;proficient in system-level design and experience with web services and service-oriented architecture &lt;/li&gt; &lt;li&gt;is familiar with version control systems such as Git &lt;/li&gt; &lt;li&gt;has an experience in testing frameworks and practices, including unit, integration, and automated testing &lt;/li&gt; &lt;li&gt;has an experience in securing software applications &lt;/li&gt; &lt;li&gt;with excellent written and verbal communication skills, including the ability to explain complex technical concepts to a non-technical audience. &lt;/li&gt; &lt;li&gt;is flexible to adapt to rapidly changing conditions and priorities &lt;/li&gt; &lt;li&gt;has the ability to multi-task, prioritize tasks, and quickly adjust in a rapidly changing environment &lt;/li&gt; &lt;li&gt;has the ability to furnish a comprehensive portfolio or provide examples of projects where they have successfully led the software engineering effort &lt;/li&gt; &lt;/ul&gt;&lt;p&gt;Our ideal candidate possesses the following qualities and traits: &lt;/p&gt;&lt;ul&gt; &lt;li&gt;proactive, adaptable, and flexible &lt;/li&gt; &lt;li&gt;highly professional &lt;/li&gt; &lt;li&gt;has the willingness to go the extra mile to achieve desired outcomes &lt;/li&gt; &lt;li&gt;with strong collaboration and communication skills to work effectively with cross-functional teams &lt;/li&gt; &lt;li&gt;with strong problem-solving skills  &lt;/li&gt; &lt;li&gt;committed to continuous improvements and willing to experiment with new approaches and techniques to work processes&lt;/li&gt; &lt;/ul&gt;
-                                            &lt;div class="view_opening_cont jobs-single__btn"&gt;
-                                                &lt;a href="https://apply.workable.com/j/4EBA6215C5/apply" target="_blank" class="btn btn-primary btn-med btn-view-opening"&gt;Apply Now&lt;/a&gt;
-                                            &lt;/div&gt;
-                                            &lt;!--?php endif; ?--&gt;</v>
-      </c>
-    </row>
-    <row r="16" xml:space="preserve">
+        <v>N/A</v>
+      </c>
+      <c r="F15" t="str">
+        <v>&lt;p&gt;As a Technical Lead, you will be responsible for leading and implementing technical decisions and efforts of a software engineering team, overseeing and performing the development of high-quality software products, and enhancing our existing software platforms alone or with individuals of the same or similar role. The role requires a combination of strong leadership, advanced technical capabilities, and excellent communication skills. The successful candidate must have a deep understanding of the software development lifecycles, modern software engineering technologies and methodologies, and the ability to guide and inspire a team of talented engineers. &lt;/p&gt;&lt;p&gt;The Tehnical Lead is the basic unit member of a future engineering department capable of taking the business where it needs to go. High performing, skilled engineers - capable of thriving in both a team environment and as individuals. In a gist, this is a coding/technical role with good management ownership mindset. &lt;/p&gt;&lt;p&gt;&lt;strong&gt;Your responsibilities will include:&lt;/strong&gt; &lt;/p&gt;&lt;ul&gt; &lt;li&gt;leading and managing a team of software engineers, fostering a creative and cohesive unit capable of delivering complex software projects &lt;/li&gt; &lt;li&gt;coordinating with scrum masters, project managers and other software engineers to plan, design, develop, test, and maintain web-based and desktop applications &lt;/li&gt; &lt;li&gt;providing technical leadership in all aspects of our software development processes &lt;/li&gt; &lt;li&gt;overseeing the design, development, and implementation of new software systems and enhancements to existing systems &lt;/li&gt; &lt;li&gt;ensuring all software engineering projects are delivered on time and to the agreed quality standards &lt;/li&gt; &lt;li&gt;continually updating technical knowledge and skills and sharing them with the team &lt;/li&gt; &lt;li&gt;maintaining high standards of software quality within the team by establishing good practices and habits &lt;/li&gt; &lt;li&gt;providing regular performance feedback, coaching, and career development to team members &lt;/li&gt; &lt;li&gt;facilitating root cause analysis of system issues and implementing resolution strategies. &lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Requirements&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt; &lt;li&gt;with a minimum of 7 years of hands-on experience in software development, including at least 3 years in a leadership capacity &lt;/li&gt; &lt;li&gt;with extensive experience in various programming languages such as Java, C++, C# dot Net, Python, JavaScript, etc.  &lt;/li&gt; &lt;li&gt;competent in Object Oriented Design, functional programming, and even with straight forward scripting to solve problems. &lt;/li&gt; &lt;li&gt;with solid experience as a full stack developer, capable of working proficiently at both the backend and frontend levels (ex:  HTML, ES6, Virtual DOM like ReactJS, and DOM like bootstrap + jQuery). &lt;/li&gt; &lt;li&gt;is aware of good User Experience (UX) practices and trends, capable of effectively proposing how to improve User Experience and understands when to trust clients/stakeholders on their chosen path of UX &lt;/li&gt; &lt;li&gt;is familiar with modern software architectures (microservices, event-driven architectures) and deployment methodologies and tools (CI/CD, Docker, Kubernetes) &lt;/li&gt; &lt;li&gt;believes that software quality is not the work alone of the Quality Assurance/Control team &lt;/li&gt; &lt;li&gt;has practiced unit testing and Test-Driven Development (TDD and optionally Behavior-Driven Development (BDD) &lt;/li&gt; &lt;li&gt;with experience in software development methodologies like Agile/Scrum. &lt;/li&gt; &lt;li&gt;has a strong knowledge of database systems, both SQL and NoSQL, and entity relationship modelling. &lt;/li&gt; &lt;li&gt;has excellent problem-solving and detail orientation skills &lt;/li&gt; &lt;li&gt;possesses strong communication and interpersonal skills &lt;/li&gt; &lt;li&gt;has proven ability to manage and prioritize multiple, concurrent projects &lt;/li&gt; &lt;li&gt;is familiar with cloud platforms (AWS, Azure, Google Cloud) is a plus &lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Additional Requirements:&lt;/strong&gt; &lt;/p&gt;&lt;ul&gt; &lt;li&gt;has a proven track record of managing all aspects of a successful software product throughout its lifecycle &lt;/li&gt; &lt;li&gt;with solid understanding of the technology landscape including current and emerging technologies and best practices &lt;/li&gt; &lt;li&gt;can inspire and motivate teams to deliver innovative and exciting solutions with an appropriate sense of urgency &lt;/li&gt; &lt;li&gt;has demonstrated success in leading and managing a team of software engineers with a commitment to their growth and professional development &lt;/li&gt; &lt;li&gt;has an exceptional project management and organization skills &lt;/li&gt; &lt;li&gt;with strong customer focus and ability to manage client expectations &lt;/li&gt; &lt;li&gt;proficient in system-level design and experience with web services and service-oriented architecture &lt;/li&gt; &lt;li&gt;is familiar with version control systems such as Git &lt;/li&gt; &lt;li&gt;has an experience in testing frameworks and practices, including unit, integration, and automated testing &lt;/li&gt; &lt;li&gt;has an experience in securing software applications &lt;/li&gt; &lt;li&gt;with excellent written and verbal communication skills, including the ability to explain complex technical concepts to a non-technical audience. &lt;/li&gt; &lt;li&gt;is flexible to adapt to rapidly changing conditions and priorities &lt;/li&gt; &lt;li&gt;has the ability to multi-task, prioritize tasks, and quickly adjust in a rapidly changing environment &lt;/li&gt; &lt;li&gt;has the ability to furnish a comprehensive portfolio or provide examples of projects where they have successfully led the software engineering effort &lt;/li&gt; &lt;/ul&gt;&lt;p&gt;Our ideal candidate possesses the following qualities and traits: &lt;/p&gt;&lt;ul&gt; &lt;li&gt;proactive, adaptable, and flexible &lt;/li&gt; &lt;li&gt;highly professional &lt;/li&gt; &lt;li&gt;has the willingness to go the extra mile to achieve desired outcomes &lt;/li&gt; &lt;li&gt;with strong collaboration and communication skills to work effectively with cross-functional teams &lt;/li&gt; &lt;li&gt;with strong problem-solving skills  &lt;/li&gt; &lt;li&gt;committed to continuous improvements and willing to experiment with new approaches and techniques to work processes&lt;/li&gt; &lt;/ul&gt;</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="str">
         <v>Training &amp; Onboarding Team Lead- Lead Generation (Remote, Night Shift)</v>
       </c>
@@ -769,20 +713,16 @@
         <v>https://legalmatch.ph/jobs/training-&amp;-onboarding-team-lead-lead-generation-remote-night-shift</v>
       </c>
       <c r="D16" t="str">
-        <v xml:space="preserve"> &lt;li&gt;Organizing the documentation, training processes, and supporting information for the team. &lt;/li&gt; &lt;li&gt;Collaborating with Call Team leads, Trainers, and QA in designing and implementing training at all levels: initial onboarding, skills improvement, and individual advancement and optimization. &lt;/li&gt; &lt;li&gt;Ensuring that training materials and methods are effective, engaging, and always improving. &lt;/li&gt; &lt;li&gt;Implementing training lessons, receiving feedback, and improving. &lt;/li&gt; &lt;li&gt;Measuring everything and analyzing measurements for constant improvement. &lt;/li&gt; &lt;li&gt;Collaborating with senior management and internal stakeholders, aligning training objectives with organizational goals and strategies. &lt;/li&gt; &lt;li&gt;Regularly communicating progress, results, and challenges to stakeholders. &lt;/li&gt; </v>
+        <v>&lt;ul&gt; &lt;li&gt;Organizing the documentation, training processes, and supporting information for the team. &lt;/li&gt; &lt;li&gt;Collaborating with Call Team leads, Trainers, and QA in designing and implementing training at all levels: initial onboarding, skills improvement, and individual advancement and optimization. &lt;/li&gt; &lt;li&gt;Ensuring that training materials and methods are effective, engaging, and always improving. &lt;/li&gt; &lt;li&gt;Implementing training lessons, receiving feedback, and improving. &lt;/li&gt; &lt;li&gt;Measuring everything and analyzing measurements for constant improvement. &lt;/li&gt; &lt;li&gt;Collaborating with senior management and internal stakeholders, aligning training objectives with organizational goals and strategies. &lt;/li&gt; &lt;li&gt;Regularly communicating progress, results, and challenges to stakeholders. &lt;/li&gt; &lt;/ul&gt;</v>
       </c>
       <c r="E16" t="str">
-        <v xml:space="preserve"> &lt;li&gt;Organizing the documentation, training processes, and supporting information for the team. &lt;/li&gt; &lt;li&gt;Collaborating with Call Team leads, Trainers, and QA in designing and implementing training at all levels: initial onboarding, skills improvement, and individual advancement and optimization. &lt;/li&gt; &lt;li&gt;Ensuring that training materials and methods are effective, engaging, and always improving. &lt;/li&gt; &lt;li&gt;Implementing training lessons, receiving feedback, and improving. &lt;/li&gt; &lt;li&gt;Measuring everything and analyzing measurements for constant improvement. &lt;/li&gt; &lt;li&gt;Collaborating with senior management and internal stakeholders, aligning training objectives with organizational goals and strategies. &lt;/li&gt; &lt;li&gt;Regularly communicating progress, results, and challenges to stakeholders. &lt;/li&gt; </v>
-      </c>
-      <c r="F16" t="str" xml:space="preserve">
-        <v xml:space="preserve">&lt;p&gt;As a Training &amp;amp; Onboarding Team Lead for our Appointment-Setting Teams in the Philippines, you’ll be responsible for our entire Training Team. We’ll look to you to organize and design our training programs to optimize our KPIs and focus the team on continual improvement. Measurement, Organization, Testing of Ideas, Analysis and Implementation are key aspects of the job you’ll be responsible for. &lt;br&gt;&lt;/p&gt;&lt;p&gt;Responsibilities: &lt;/p&gt;&lt;ul&gt; &lt;li&gt;Organizing the documentation, training processes, and supporting information for the team. &lt;/li&gt; &lt;li&gt;Collaborating with Call Team leads, Trainers, and QA in designing and implementing training at all levels: initial onboarding, skills improvement, and individual advancement and optimization. &lt;/li&gt; &lt;li&gt;Ensuring that training materials and methods are effective, engaging, and always improving. &lt;/li&gt; &lt;li&gt;Implementing training lessons, receiving feedback, and improving. &lt;/li&gt; &lt;li&gt;Measuring everything and analyzing measurements for constant improvement. &lt;/li&gt; &lt;li&gt;Collaborating with senior management and internal stakeholders, aligning training objectives with organizational goals and strategies. &lt;/li&gt; &lt;li&gt;Regularly communicating progress, results, and challenges to stakeholders. &lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Requirements&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt; &lt;li&gt;Minimum 5 years in a Training Manager role. &lt;/li&gt; &lt;li&gt;A consistent record of high performance in previous similar roles. &lt;/li&gt; &lt;li&gt;Previous exposure to the sales environment ideal, though not a must. &lt;/li&gt; &lt;li&gt;Experience organizing complex training for a large team. &lt;/li&gt; &lt;li&gt;Proficiency in building training program content and materials. &lt;/li&gt; &lt;li&gt;Be Outcome Driven. &lt;/li&gt; &lt;li&gt;Be a Leader. &lt;/li&gt; &lt;li&gt;Be a Problem Solver. &lt;/li&gt; &lt;li&gt;Be very Detail Oriented. &lt;/li&gt; &lt;li&gt;Be Open to feedback and always be improving. &lt;/li&gt; &lt;/ul&gt;
-                                            &lt;div class="view_opening_cont jobs-single__btn"&gt;
-                                                &lt;a href="https://apply.workable.com/j/5C535682A6/apply" target="_blank" class="btn btn-primary btn-med btn-view-opening"&gt;Apply Now&lt;/a&gt;
-                                            &lt;/div&gt;
-                                            &lt;!--?php endif; ?--&gt;</v>
-      </c>
-    </row>
-    <row r="17" xml:space="preserve">
+        <v>&lt;ul&gt; &lt;li&gt;Minimum 5 years in a Training Manager role. &lt;/li&gt; &lt;li&gt;A consistent record of high performance in previous similar roles. &lt;/li&gt; &lt;li&gt;Previous exposure to the sales environment ideal, though not a must. &lt;/li&gt; &lt;li&gt;Experience organizing complex training for a large team. &lt;/li&gt; &lt;li&gt;Proficiency in building training program content and materials. &lt;/li&gt; &lt;li&gt;Be Outcome Driven. &lt;/li&gt; &lt;li&gt;Be a Leader. &lt;/li&gt; &lt;li&gt;Be a Problem Solver. &lt;/li&gt; &lt;li&gt;Be very Detail Oriented. &lt;/li&gt; &lt;li&gt;Be Open to feedback and always be improving. &lt;/li&gt; &lt;/ul&gt;</v>
+      </c>
+      <c r="F16" t="str">
+        <v>&lt;p&gt;As a Training &amp;amp; Onboarding Team Lead for our Appointment-Setting Teams in the Philippines, you’ll be responsible for our entire Training Team. We’ll look to you to organize and design our training programs to optimize our KPIs and focus the team on continual improvement. Measurement, Organization, Testing of Ideas, Analysis and Implementation are key aspects of the job you’ll be responsible for. &lt;br&gt;&lt;/p&gt;&lt;p&gt;Responsibilities: &lt;/p&gt;&lt;ul&gt; &lt;li&gt;Organizing the documentation, training processes, and supporting information for the team. &lt;/li&gt; &lt;li&gt;Collaborating with Call Team leads, Trainers, and QA in designing and implementing training at all levels: initial onboarding, skills improvement, and individual advancement and optimization. &lt;/li&gt; &lt;li&gt;Ensuring that training materials and methods are effective, engaging, and always improving. &lt;/li&gt; &lt;li&gt;Implementing training lessons, receiving feedback, and improving. &lt;/li&gt; &lt;li&gt;Measuring everything and analyzing measurements for constant improvement. &lt;/li&gt; &lt;li&gt;Collaborating with senior management and internal stakeholders, aligning training objectives with organizational goals and strategies. &lt;/li&gt; &lt;li&gt;Regularly communicating progress, results, and challenges to stakeholders. &lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Requirements&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt; &lt;li&gt;Minimum 5 years in a Training Manager role. &lt;/li&gt; &lt;li&gt;A consistent record of high performance in previous similar roles. &lt;/li&gt; &lt;li&gt;Previous exposure to the sales environment ideal, though not a must. &lt;/li&gt; &lt;li&gt;Experience organizing complex training for a large team. &lt;/li&gt; &lt;li&gt;Proficiency in building training program content and materials. &lt;/li&gt; &lt;li&gt;Be Outcome Driven. &lt;/li&gt; &lt;li&gt;Be a Leader. &lt;/li&gt; &lt;li&gt;Be a Problem Solver. &lt;/li&gt; &lt;li&gt;Be very Detail Oriented. &lt;/li&gt; &lt;li&gt;Be Open to feedback and always be improving. &lt;/li&gt; &lt;/ul&gt;</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="str">
         <v>Training and Support Specialist 1002 (Remote, Night shift)</v>
       </c>
@@ -793,17 +733,13 @@
         <v>https://legalmatch.ph/jobs/training-and-support-specialist-1002-remote-night-shift</v>
       </c>
       <c r="D17" t="str">
-        <v>&lt;li&gt;participating in recruiting activities, with the goal of finding strong performers (based on culture, skills, experience, and other qualification requirements &lt;/li&gt;</v>
+        <v>N/A</v>
       </c>
       <c r="E17" t="str">
-        <v>&lt;li&gt;participating in recruiting activities, with the goal of finding strong performers (based on culture, skills, experience, and other qualification requirements &lt;/li&gt;</v>
-      </c>
-      <c r="F17" t="str" xml:space="preserve">
-        <v xml:space="preserve">&lt;p&gt;Collaborating closely with Team Leaders, you will assume a pivotal role in supporting your assigned team by overseeing essential tasks including recruitment, onboarding, quality assurance, and other related activities. Additionally, you will be a key contributor to our company's growth by actively engaging with potential customers, cultivating their interest, and efficiently scheduling appointments for our sales team.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Your responsibilities include:&lt;/strong&gt; &lt;/p&gt;&lt;ul&gt;&lt;li&gt;participating in recruiting activities, with the goal of finding strong performers (based on culture, skills, experience, and other qualification requirements &lt;/li&gt;&lt;/ul&gt;&lt;ul&gt; &lt;li&gt;conducting onboarding activities to ensure smooth transition for new hires &lt;/li&gt; &lt;li&gt;providing guidance and support to new team members, helping them acclimate to their roles and the company’s processes &lt;/li&gt; &lt;li&gt;serving as a resource person for answering questions and addressing concerns during the onboarding period &lt;/li&gt; &lt;li&gt;conducting training activities as needed  &lt;/li&gt; &lt;li&gt;qualifying leads and opportunities based on predefined criteria and ensuring they meet the established qualification standards prior to assigning them to appropriate Sales Team members &lt;/li&gt; &lt;/ul&gt;&lt;ul&gt; &lt;li&gt;assisting in quality assurance activities (as needed) to ensure adherence to company standards and optimize customer experience  &lt;/li&gt; &lt;li&gt;making outbound calls to potential customers with the goal of consistently delivering agreed targets  &lt;/li&gt; &lt;li&gt;scheduling consultations between contacts/prospective customers and members of our Sales Team &lt;/li&gt; &lt;li&gt;inputting information accurately into our system  &lt;/li&gt; &lt;li&gt;representing the company in the best way possible when conversing with contacts &lt;/li&gt; &lt;/ul&gt;&lt;ul&gt; &lt;li&gt;ensuring all calls are done based on standards and requirements of the company &lt;/li&gt; &lt;li&gt;delivering reports accurately and on a timely basis &lt;/li&gt; &lt;li&gt;participating and documenting processes and improvement initiatives  &lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Requirements&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt; &lt;li&gt;With at least 2 years of successful experience as a Lead Generation Support Specialist or Subject Matter Expert (Sales calls related) or relevant experience&lt;/li&gt; &lt;li&gt;Experience working w/ any CRM Tools (Salesforce is a plus but not required)&lt;/li&gt; &lt;li&gt;Experience with MS Office Tools&lt;/li&gt; &lt;li&gt;With prior experience with training, onboarding, and recruiting&lt;/li&gt; &lt;li&gt;Strong people skills&lt;/li&gt; &lt;li&gt;Excellent listening and verbal communication skills&lt;/li&gt; &lt;li&gt;Has a strong broadband internet connection&lt;/li&gt; &lt;li&gt;Has a designated professional and quiet workspace&lt;/li&gt; &lt;li&gt;Amenable to working on a graveyard shift &lt;/li&gt; &lt;/ul&gt;&lt;p&gt;As an agile company, we're seeking a trailblazer who personifies the following qualities and traits: &lt;/p&gt;&lt;ul&gt; &lt;li&gt;Proactive, adaptable and flexible&lt;/li&gt; &lt;li&gt;Highly professional&lt;/li&gt; &lt;li&gt;Willing to go the extra mile to achieve desired outcomes&lt;/li&gt; &lt;li&gt;Highly collaborative&lt;/li&gt; &lt;li&gt;Committed to continuous improvements and willing to experiment with new approaches and techniques to work processes &lt;/li&gt; &lt;/ul&gt;
-                                            &lt;div class="view_opening_cont jobs-single__btn"&gt;
-                                                &lt;a href="https://apply.workable.com/j/A6DF2CD09F/apply" target="_blank" class="btn btn-primary btn-med btn-view-opening"&gt;Apply Now&lt;/a&gt;
-                                            &lt;/div&gt;
-                                            &lt;!--?php endif; ?--&gt;</v>
+        <v>N/A</v>
+      </c>
+      <c r="F17" t="str">
+        <v>&lt;p&gt;Collaborating closely with Team Leaders, you will assume a pivotal role in supporting your assigned team by overseeing essential tasks including recruitment, onboarding, quality assurance, and other related activities. Additionally, you will be a key contributor to our company's growth by actively engaging with potential customers, cultivating their interest, and efficiently scheduling appointments for our sales team.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Your responsibilities include:&lt;/strong&gt; &lt;/p&gt;&lt;ul&gt;&lt;li&gt;participating in recruiting activities, with the goal of finding strong performers (based on culture, skills, experience, and other qualification requirements &lt;/li&gt;&lt;/ul&gt;&lt;ul&gt; &lt;li&gt;conducting onboarding activities to ensure smooth transition for new hires &lt;/li&gt; &lt;li&gt;providing guidance and support to new team members, helping them acclimate to their roles and the company’s processes &lt;/li&gt; &lt;li&gt;serving as a resource person for answering questions and addressing concerns during the onboarding period &lt;/li&gt; &lt;li&gt;conducting training activities as needed  &lt;/li&gt; &lt;li&gt;qualifying leads and opportunities based on predefined criteria and ensuring they meet the established qualification standards prior to assigning them to appropriate Sales Team members &lt;/li&gt; &lt;/ul&gt;&lt;ul&gt; &lt;li&gt;assisting in quality assurance activities (as needed) to ensure adherence to company standards and optimize customer experience  &lt;/li&gt; &lt;li&gt;making outbound calls to potential customers with the goal of consistently delivering agreed targets  &lt;/li&gt; &lt;li&gt;scheduling consultations between contacts/prospective customers and members of our Sales Team &lt;/li&gt; &lt;li&gt;inputting information accurately into our system  &lt;/li&gt; &lt;li&gt;representing the company in the best way possible when conversing with contacts &lt;/li&gt; &lt;/ul&gt;&lt;ul&gt; &lt;li&gt;ensuring all calls are done based on standards and requirements of the company &lt;/li&gt; &lt;li&gt;delivering reports accurately and on a timely basis &lt;/li&gt; &lt;li&gt;participating and documenting processes and improvement initiatives  &lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Requirements&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt; &lt;li&gt;With at least 2 years of successful experience as a Lead Generation Support Specialist or Subject Matter Expert (Sales calls related) or relevant experience&lt;/li&gt; &lt;li&gt;Experience working w/ any CRM Tools (Salesforce is a plus but not required)&lt;/li&gt; &lt;li&gt;Experience with MS Office Tools&lt;/li&gt; &lt;li&gt;With prior experience with training, onboarding, and recruiting&lt;/li&gt; &lt;li&gt;Strong people skills&lt;/li&gt; &lt;li&gt;Excellent listening and verbal communication skills&lt;/li&gt; &lt;li&gt;Has a strong broadband internet connection&lt;/li&gt; &lt;li&gt;Has a designated professional and quiet workspace&lt;/li&gt; &lt;li&gt;Amenable to working on a graveyard shift &lt;/li&gt; &lt;/ul&gt;&lt;p&gt;As an agile company, we're seeking a trailblazer who personifies the following qualities and traits: &lt;/p&gt;&lt;ul&gt; &lt;li&gt;Proactive, adaptable and flexible&lt;/li&gt; &lt;li&gt;Highly professional&lt;/li&gt; &lt;li&gt;Willing to go the extra mile to achieve desired outcomes&lt;/li&gt; &lt;li&gt;Highly collaborative&lt;/li&gt; &lt;li&gt;Committed to continuous improvements and willing to experiment with new approaches and techniques to work processes &lt;/li&gt; &lt;/ul&gt;</v>
       </c>
     </row>
   </sheetData>
